--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -62,18 +62,6 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -128,7 +116,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:12 AM</t>
+    <t>Tuesday, 9 September, 2025 10:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -819,7 +807,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -828,14 +816,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -845,14 +833,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -861,14 +849,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -885,7 +873,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -894,99 +882,66 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="7">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c t="s" r="C12" s="8">
-        <v>34</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c t="s" r="H12" s="9">
+      <c r="P12" s="13">
+        <v>136.86000000000001</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
         <v>35</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c t="s" r="L12" s="10">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
         <v>36</v>
       </c>
-      <c r="M12" s="10"/>
-      <c t="s" r="N12" s="8">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
         <v>37</v>
       </c>
-      <c r="O12" s="8"/>
-      <c t="s" r="P12" s="11">
-        <v>38</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>148.74000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>39</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
-        <v>40</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
-        <v>41</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1020,15 +975,10 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:15 AM</t>
+    <t>Tuesday, 9 September, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -62,6 +62,42 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>CAL-MAG D CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>81.8400</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -89,9 +125,6 @@
     <t>13.8600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
@@ -107,16 +140,13 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 9 September, 2025 10:16 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 9 September, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -807,7 +837,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -816,31 +846,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -849,14 +879,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -866,14 +896,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -882,66 +912,165 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>34</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>136.86000000000001</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>33</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>22</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>278.32999999999998</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1104,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -86,6 +86,30 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>LIMITLESS MILGA MAX 30 TABS</t>
   </si>
   <si>
@@ -101,18 +125,12 @@
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>37.00</t>
   </si>
   <si>
     <t>37.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -134,6 +152,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>24.5000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -146,7 +173,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:54 AM</t>
+    <t>Tuesday, 9 September, 2025 10:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -903,7 +930,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -912,14 +939,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -936,7 +963,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,14 +972,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -962,14 +989,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,14 +1005,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -995,14 +1022,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1011,66 +1038,165 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>44</v>
       </c>
-      <c t="s" r="Q14" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>278.32999999999998</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>29</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>29</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>51</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>22</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>511.62</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1245,25 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -86,6 +86,27 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -98,9 +119,6 @@
     <t>188.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ITOMASH 50MG 30 TAB.</t>
   </si>
   <si>
@@ -122,6 +140,18 @@
     <t>81.8400</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -173,7 +203,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:55 AM</t>
+    <t>Tuesday, 9 September, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -913,24 +943,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -939,7 +969,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -956,14 +986,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -972,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -989,14 +1019,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1005,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1022,14 +1052,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1038,14 +1068,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1055,14 +1085,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,14 +1101,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1095,7 +1125,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1111,7 +1141,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1128,7 +1158,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1150,7 +1180,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1161,42 +1191,141 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>511.62</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>31</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>31</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>22</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>682.12</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1389,25 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 11:13 AM</t>
+    <t>Tuesday, 9 September, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>LIMITLESS MILGA MAX 30 TABS</t>
   </si>
   <si>
@@ -203,7 +212,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 11:16 AM</t>
+    <t>Tuesday, 9 September, 2025 11:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1075,7 +1084,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,14 +1094,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1101,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1118,11 +1127,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1134,14 +1143,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1158,7 +1167,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1174,7 +1183,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1184,14 +1193,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1200,14 +1209,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1224,7 +1233,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1257,7 +1266,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1273,59 +1282,92 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>22</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>682.12</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>64</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>65</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>66</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>722.12</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1446,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 11:17 AM</t>
+    <t>Tuesday, 9 September, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACRETIN 0.025% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -104,9 +119,6 @@
     <t>105.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -203,16 +215,25 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 11:19 AM</t>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 9 September, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -903,7 +924,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -912,31 +933,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -945,31 +966,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -978,31 +999,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1011,14 +1032,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1035,7 +1056,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1051,7 +1072,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1061,11 +1082,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1077,14 +1098,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1094,14 +1115,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1110,14 +1131,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1167,7 +1188,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1183,7 +1204,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,14 +1214,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,14 +1230,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1233,7 +1254,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1249,7 +1270,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1259,14 +1280,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,14 +1296,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1292,11 +1313,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1308,20 +1329,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1332,42 +1353,108 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>722.12</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>67</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>27</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>27</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>72</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>775.12</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>74</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>75</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>76</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1538,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -212,6 +212,18 @@
     <t>24.5000</t>
   </si>
   <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -221,19 +233,31 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>شامبو الفيف 200 مل</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضاضه الجو </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 9 September, 2025 11:20 AM</t>
+    <t>Tuesday, 9 September, 2025 12:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1369,7 +1393,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1379,14 +1403,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1395,14 +1419,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1419,42 +1443,141 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>27</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>775.12</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>74</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>75</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>76</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>68</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>27</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>81</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>27</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>78</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>935.12</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1548,10 +1671,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -242,7 +242,10 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">عضاضه الجو </t>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>15.00</t>
@@ -251,13 +254,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 9 September, 2025 12:28 PM</t>
+    <t>Tuesday, 9 September, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1492,7 +1489,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1502,82 +1499,49 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="A26" s="7">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c t="s" r="C26" s="8">
-        <v>80</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c t="s" r="H26" s="9">
+      <c r="P26" s="13">
+        <v>920.12</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
         <v>81</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c t="s" r="L26" s="10">
-        <v>27</v>
-      </c>
-      <c r="M26" s="10"/>
-      <c t="s" r="N26" s="8">
-        <v>78</v>
-      </c>
-      <c r="O26" s="8"/>
-      <c t="s" r="P26" s="11">
-        <v>79</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>935.12</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
         <v>82</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
         <v>83</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>84</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1681,15 +1645,10 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -161,6 +173,15 @@
     <t>81.8400</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -212,6 +233,27 @@
     <t>24.5000</t>
   </si>
   <si>
+    <t>URIPAN 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -254,7 +296,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 12:49 PM</t>
+    <t>Tuesday, 9 September, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -994,13 +1036,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1033,15 +1075,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1053,7 +1095,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1066,18 +1108,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1086,14 +1128,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1126,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1136,14 +1178,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1152,14 +1194,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1169,14 +1211,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1185,14 +1227,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1209,7 +1251,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1258,7 +1300,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1275,7 +1317,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,7 +1350,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1324,7 +1366,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1357,7 +1399,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1367,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1383,20 +1425,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1423,13 +1465,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1440,7 +1482,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1456,13 +1498,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1473,7 +1515,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1495,7 +1537,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1510,38 +1552,170 @@
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>920.12</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>82</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>31</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>83</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>85</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>31</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>31</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>89</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>92</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>31</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1024.71</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>95</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>96</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>97</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1645,10 +1819,30 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 12:55 PM</t>
+    <t>Tuesday, 9 September, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -143,6 +143,30 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ITOMASH 50MG 30 TAB.</t>
   </si>
   <si>
@@ -275,6 +299,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شامبو الفيف 200 مل</t>
   </si>
   <si>
@@ -296,7 +329,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 12:57 PM</t>
+    <t>Tuesday, 9 September, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1234,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1211,11 +1244,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1227,14 +1260,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1244,14 +1277,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1260,14 +1293,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1277,11 +1310,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1293,14 +1326,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1310,14 +1343,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1326,14 +1359,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1343,11 +1376,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1359,14 +1392,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1376,14 +1409,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1392,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,14 +1442,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1425,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1442,11 +1475,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1458,14 +1491,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,14 +1508,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1491,7 +1524,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1508,14 +1541,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,14 +1557,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1541,14 +1574,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1557,20 +1590,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1581,7 +1614,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1597,24 +1630,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1623,14 +1656,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1640,11 +1673,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1656,14 +1689,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1673,49 +1706,148 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>31</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>97</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1024.71</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>95</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>96</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>97</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>99</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>31</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>100</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>102</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>103</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>31</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>104</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1090.5750000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>106</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>107</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>108</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1839,10 +1971,25 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -122,6 +122,21 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -167,6 +182,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
     <t>ITOMASH 50MG 30 TAB.</t>
   </si>
   <si>
@@ -329,7 +353,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 1:18 PM</t>
+    <t>Tuesday, 9 September, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1168,7 +1192,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1178,14 +1202,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1194,14 +1218,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1211,11 +1235,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1227,14 +1251,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1244,14 +1268,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1260,14 +1284,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,11 +1301,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1293,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,11 +1334,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1326,28 +1350,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1359,14 +1383,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,11 +1400,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1392,14 +1416,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1409,14 +1433,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1425,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,11 +1466,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1458,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1475,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1491,14 +1515,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,14 +1532,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1524,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,11 +1565,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1557,14 +1581,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,14 +1598,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1590,7 +1614,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1607,14 +1631,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1623,14 +1647,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,20 +1680,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1680,7 +1704,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1696,24 +1720,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,14 +1746,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1739,11 +1763,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1755,7 +1779,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1772,14 +1796,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1805,49 +1829,115 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1090.5750000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>106</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>107</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>12</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>31</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>108</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>110</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>111</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>31</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>112</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1208.3250000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>114</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>115</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>116</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1986,10 +2076,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -221,6 +221,12 @@
     <t>81.8400</t>
   </si>
   <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -353,7 +359,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 1:21 PM</t>
+    <t>Tuesday, 9 September, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,7 +1495,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1499,11 +1505,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1515,14 +1521,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,11 +1538,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1548,14 +1554,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1571,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,14 +1587,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1598,14 +1604,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1614,14 +1620,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,14 +1637,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1647,7 +1653,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1664,14 +1670,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,7 +1686,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1697,11 +1703,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,14 +1736,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,28 +1752,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1779,14 +1785,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,14 +1802,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,7 +1818,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1829,14 +1835,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,7 +1851,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1862,11 +1868,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1878,14 +1884,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1895,49 +1901,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1208.3250000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>112</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>113</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>31</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>114</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>115</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1228.3250000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
         <v>116</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>117</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>118</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2086,10 +2125,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -326,7 +326,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -347,6 +350,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>كمامات قطع</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -356,10 +368,13 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 9 September, 2025 1:47 PM</t>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>Tuesday, 9 September, 2025 1:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1842,7 +1857,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,7 +1866,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1868,11 +1883,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1884,7 +1899,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1901,11 +1916,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1917,14 +1932,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1934,49 +1949,115 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>116</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>117</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>31</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>118</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1228.3250000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>116</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>117</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>118</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>119</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>31</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>120</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1267.3250000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>121</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>122</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>123</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2130,10 +2211,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
   </si>
   <si>
     <t>شامبو الفيف 200 مل</t>
@@ -1906,7 +1915,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1939,7 +1948,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2005,7 +2014,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2015,49 +2024,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>122</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>12</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>31</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>123</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>36</v>
       </c>
-      <c t="s" r="Q37" s="12">
+      <c t="s" r="Q38" s="12">
         <v>46</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1267.3250000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>121</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>122</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>123</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1274.3250000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>124</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>125</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>126</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2221,10 +2263,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>CAL-MAG D CAPS</t>
   </si>
   <si>
@@ -383,7 +392,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 1:48 PM</t>
+    <t>Tuesday, 9 September, 2025 2:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1156,24 +1165,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1182,7 +1191,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1195,7 +1204,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1222,24 +1231,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1248,14 +1257,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1265,14 +1274,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1288,7 +1297,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1298,11 +1307,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1314,14 +1323,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1331,14 +1340,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1347,14 +1356,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1364,11 +1373,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1380,20 +1389,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1404,7 +1413,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1420,13 +1429,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1437,7 +1446,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1453,7 +1462,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1470,7 +1479,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1486,7 +1495,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1496,14 +1505,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1512,14 +1521,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,11 +1538,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1562,7 +1571,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1585,7 +1594,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,11 +1604,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1635,7 +1644,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1661,14 +1670,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1677,14 +1686,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1701,7 +1710,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1734,7 +1743,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1783,7 +1792,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,14 +1802,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,28 +1818,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1842,20 +1851,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1866,7 +1875,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1875,7 +1884,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1888,18 +1897,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1915,13 +1924,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1948,13 +1957,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1981,24 +1990,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2020,18 +2029,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2047,59 +2056,92 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1274.3250000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>124</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>125</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>34</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>126</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1399.3250000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>127</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>128</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>129</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2268,10 +2310,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -101,15 +101,6 @@
     <t>9.1200</t>
   </si>
   <si>
-    <t>BOBAI SUN BLOCK CREAM SPF 80 - 50 GM</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
     <t>CAL-MAG D CAPS</t>
   </si>
   <si>
@@ -368,6 +359,24 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>9:4</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>كمامات قطع</t>
   </si>
   <si>
@@ -392,7 +401,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 2:19 PM</t>
+    <t>Tuesday, 9 September, 2025 4:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1165,24 +1174,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1191,7 +1200,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1204,7 +1213,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1231,24 +1240,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1257,14 +1266,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1274,14 +1283,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1297,7 +1306,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1307,11 +1316,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1323,14 +1332,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1340,14 +1349,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1356,14 +1365,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1373,11 +1382,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1389,20 +1398,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1413,7 +1422,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1429,13 +1438,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1446,7 +1455,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1462,7 +1471,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1479,7 +1488,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1495,7 +1504,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1505,14 +1514,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1538,11 +1547,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1571,7 +1580,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1594,7 +1603,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,11 +1613,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1644,7 +1653,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1660,7 +1669,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1710,7 +1719,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1743,7 +1752,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1792,7 +1801,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,14 +1811,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1818,28 +1827,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1851,20 +1860,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1875,7 +1884,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1884,7 +1893,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1897,18 +1906,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1924,13 +1933,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1957,13 +1966,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1990,21 +1999,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2016,31 +2025,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2062,18 +2071,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2089,59 +2098,92 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1399.3250000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>127</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>128</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>31</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>129</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1324.3250000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>130</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>131</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>132</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2315,10 +2357,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -140,12 +140,24 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>105.00</t>
   </si>
   <si>
     <t>105.0000</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -173,13 +185,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>FOSAMAX TAB</t>
@@ -203,18 +218,9 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>LIMITLESS MILGA MAX 30 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>248.00</t>
   </si>
   <si>
@@ -230,6 +236,9 @@
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -239,9 +248,6 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -401,7 +407,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 4:39 PM</t>
+    <t>Tuesday, 9 September, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,7 +1279,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1283,11 +1289,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1299,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1356,7 +1362,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1405,24 +1411,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1431,31 +1437,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1464,14 +1470,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1481,14 +1487,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1497,14 +1503,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1514,14 +1520,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1530,14 +1536,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1547,7 +1553,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1570,7 +1576,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1580,11 +1586,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1596,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1613,11 +1619,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1629,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1646,14 +1652,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1662,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1679,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1695,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1712,14 +1718,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1728,7 +1734,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1745,14 +1751,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1761,7 +1767,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1778,11 +1784,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,14 +1817,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1827,28 +1833,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1860,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,14 +1883,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,7 +1899,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1910,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,11 +1949,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1959,14 +1965,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,11 +1982,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,11 +2015,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2025,14 +2031,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,11 +2048,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2065,7 +2071,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2075,14 +2081,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2091,14 +2097,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2108,14 +2114,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2145,45 +2151,78 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>130</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>12</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>31</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>131</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>36</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1324.3250000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>130</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>131</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c t="s" r="Q41" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1380.165</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>132</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>133</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>134</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2362,10 +2401,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>611.2800</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -407,7 +419,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 5:32 PM</t>
+    <t>Tuesday, 9 September, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1114,7 +1126,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1124,14 +1136,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1180,13 +1192,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1219,15 +1231,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1239,20 +1251,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1263,7 +1275,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1272,14 +1284,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1289,14 +1301,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1312,7 +1324,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1322,11 +1334,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1395,7 +1407,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1428,7 +1440,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1437,20 +1449,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1461,7 +1473,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1470,31 +1482,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1503,14 +1515,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,14 +1532,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,14 +1565,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,14 +1581,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,11 +1598,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1602,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,7 +1631,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1642,7 +1654,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,11 +1664,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1668,14 +1680,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,14 +1697,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1713,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1725,7 +1737,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1741,7 +1753,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,14 +1763,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,7 +1779,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1784,14 +1796,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1800,7 +1812,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1817,11 +1829,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1833,14 +1845,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1857,7 +1869,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1879,7 +1891,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1906,24 +1918,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1945,7 +1957,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1956,7 +1968,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,28 +1977,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1998,28 +2010,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2031,20 +2043,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2071,21 +2083,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2097,31 +2109,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,31 +2142,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2163,66 +2175,99 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
         <v>36</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1380.165</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>132</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>133</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>134</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>12</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>35</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>135</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1991.4449999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>136</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>137</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>138</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2406,10 +2451,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FOSAMAX TAB</t>
   </si>
   <si>
@@ -317,13 +326,10 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>الويز كبير بالاجنحه</t>
@@ -419,7 +425,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 5:34 PM</t>
+    <t>Tuesday, 9 September, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,13 +1495,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1506,7 +1512,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1522,13 +1528,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1539,7 +1545,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1555,7 +1561,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1565,14 +1571,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1581,14 +1587,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1598,14 +1604,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1621,7 +1627,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1631,11 +1637,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1647,14 +1653,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1664,11 +1670,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1680,14 +1686,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1720,7 +1726,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1737,7 +1743,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1753,7 +1759,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1763,14 +1769,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1779,14 +1785,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1803,7 +1809,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,7 +1842,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1885,7 +1891,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,14 +1901,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,31 +1917,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,14 +1967,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1977,7 +1983,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,14 +2016,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,11 +2033,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2043,14 +2049,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2060,11 +2066,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2076,14 +2082,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,11 +2099,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2109,14 +2115,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2126,11 +2132,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2149,7 +2155,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2159,14 +2165,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2175,14 +2181,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2192,14 +2198,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2208,14 +2214,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2229,45 +2235,78 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>136</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>12</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>35</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>137</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q42" s="12">
+      <c t="s" r="Q43" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1991.4449999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>136</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>137</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2075.8850000000002</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>138</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>139</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>140</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2456,10 +2495,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -332,6 +332,24 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>WHITE MEANS WHITE FACIAL WASH 200 ML</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -425,7 +443,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 5:45 PM</t>
+    <t>Tuesday, 9 September, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1957,21 +1975,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1983,7 +2001,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1996,18 +2014,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2033,11 +2051,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2122,7 +2140,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2132,11 +2150,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2165,11 +2183,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2198,14 +2216,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2235,7 +2253,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2254,7 +2272,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2264,49 +2282,115 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>139</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>140</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>35</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>141</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>142</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>35</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>143</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>40</v>
       </c>
-      <c t="s" r="Q43" s="12">
+      <c t="s" r="Q45" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2075.8850000000002</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>138</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>139</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>140</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2361.8850000000002</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>144</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>145</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>146</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2500,10 +2584,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>-61.3800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -152,123 +167,135 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>35.7000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>81.8400</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>81.8400</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -371,9 +398,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -443,7 +467,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 5:46 PM</t>
+    <t>Tuesday, 9 September, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1200,7 +1224,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1209,14 +1233,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1226,11 +1250,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1242,28 +1266,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1275,7 +1299,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1288,15 +1312,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1308,31 +1332,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1365,7 +1389,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1374,14 +1398,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,14 +1415,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1407,14 +1431,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1464,7 +1488,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1497,7 +1521,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1506,14 +1530,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1546,24 +1570,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1572,14 +1596,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,11 +1613,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1605,28 +1629,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1638,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,11 +1679,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1671,14 +1695,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1704,14 +1728,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,11 +1745,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1737,14 +1761,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,11 +1778,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1770,14 +1794,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,14 +1811,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1803,14 +1827,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,14 +1844,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,14 +1860,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1853,11 +1877,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1869,14 +1893,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1886,14 +1910,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,7 +1926,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1919,14 +1943,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1935,14 +1959,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1952,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +2009,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,28 +2058,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2067,7 +2091,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2080,18 +2104,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,28 +2124,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2133,31 +2157,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,7 +2190,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2179,15 +2203,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2199,28 +2223,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2232,28 +2256,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2265,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,28 +2322,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2331,66 +2355,132 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
         <v>40</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2361.8850000000002</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>144</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>145</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>147</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>148</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>40</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>149</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>146</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>150</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>12</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>40</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>151</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2264.2049999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>152</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>153</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>154</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2594,10 +2684,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -65,57 +65,60 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>28.7100</t>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>611.2800</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>-61.3800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>611.2800</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>-61.3800</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -221,138 +224,156 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>81.8400</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
+    <t>T4-THYRO 100MCG 100 TABLETS</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>24.5000</t>
+  </si>
+  <si>
+    <t>URIPAN 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>81.8400</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>13.8600</t>
-  </si>
-  <si>
-    <t>T4-THYRO 100MCG 100 TABLETS</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>24.5000</t>
-  </si>
-  <si>
-    <t>URIPAN 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -467,7 +488,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 6:47 PM</t>
+    <t>Tuesday, 9 September, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1257,7 +1278,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1266,14 +1287,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1283,14 +1304,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1299,31 +1320,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1332,31 +1353,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1365,14 +1386,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1382,14 +1403,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1398,7 +1419,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1415,14 +1436,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1431,7 +1452,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1448,11 +1469,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1464,14 +1485,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,11 +1502,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1497,14 +1518,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1514,11 +1535,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1530,14 +1551,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1547,14 +1568,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1563,14 +1584,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,14 +1601,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1596,14 +1617,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1613,14 +1634,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1629,7 +1650,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1642,15 +1663,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1662,14 +1683,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,14 +1700,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,14 +1733,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1728,14 +1749,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,14 +1766,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1761,7 +1782,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1778,14 +1799,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1794,14 +1815,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,14 +1832,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1851,7 +1872,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1867,7 +1888,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1884,7 +1905,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1900,24 +1921,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1926,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,11 +1964,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1959,14 +1980,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2016,7 +2037,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2032,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2049,7 +2070,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2065,7 +2086,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2082,7 +2103,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2098,7 +2119,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,14 +2129,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2124,20 +2145,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2170,7 +2191,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2181,7 +2202,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2197,21 +2218,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2223,31 +2244,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,7 +2277,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2269,15 +2290,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2289,20 +2310,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2329,13 +2350,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2343,7 +2364,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2355,31 +2376,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,28 +2409,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2421,66 +2442,132 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2264.2049999999999</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>152</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>154</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>155</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>41</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>156</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>153</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>154</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>157</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>12</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>41</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>158</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2464.2550000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>159</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>160</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>161</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2694,10 +2781,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 6:48 PM</t>
+    <t>Tuesday, 9 September, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -65,246 +65,249 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>611.2800</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>-61.3800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>CAL-MAG D CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>35.7000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>81.8400</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>611.2800</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>-61.3800</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>CAL-MAG D CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE 500MG 10 TAB</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>35.7000</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>81.8400</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -341,6 +344,18 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
@@ -488,7 +503,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:00 PM</t>
+    <t>Tuesday, 9 September, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1608,7 +1623,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1617,7 +1632,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1634,11 +1649,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>35</v>
@@ -1650,7 +1665,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1667,11 +1682,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1683,7 +1698,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1700,11 +1715,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>35</v>
@@ -1716,7 +1731,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1733,11 +1748,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>35</v>
@@ -1749,7 +1764,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1888,7 +1903,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1898,11 +1913,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -1914,7 +1929,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1931,11 +1946,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1947,7 +1962,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1964,11 +1979,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,14 +2045,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2046,7 +2061,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2063,14 +2078,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2079,7 +2094,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2096,11 +2111,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2178,7 +2193,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2195,11 +2210,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2211,28 +2226,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2277,7 +2292,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,11 +2342,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,11 +2375,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,11 +2408,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2426,11 +2441,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2525,49 +2540,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>162</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>41</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>163</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q49" s="12">
+      <c t="s" r="Q50" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2464.2550000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>159</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>160</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>161</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2507.0650000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>164</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>165</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>166</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2791,10 +2839,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CIDOPHAGE 500MG 10 TAB</t>
   </si>
   <si>
@@ -198,9 +210,6 @@
   </si>
   <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>188.00</t>
@@ -1425,7 +1434,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1458,7 +1467,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1484,14 +1493,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1573,7 +1582,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1656,7 +1665,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1672,13 +1681,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1689,7 +1698,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1705,13 +1714,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1722,7 +1731,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1738,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1771,7 +1780,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1847,11 +1856,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>35</v>
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,11 +1889,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>35</v>
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,11 +1922,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -1929,20 +1938,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1953,7 +1962,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1969,13 +1978,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2002,7 +2011,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2085,7 +2094,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2118,7 +2127,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2217,7 +2226,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2266,21 +2275,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2316,7 +2325,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2349,7 +2358,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2398,7 +2407,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2431,7 +2440,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2441,11 +2450,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2478,7 +2487,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2573,49 +2582,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>165</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>41</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>166</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2507.0650000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>164</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>165</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>166</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2525.0650000000001</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>167</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>168</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>169</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2844,10 +2886,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -482,6 +482,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -512,7 +521,10 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:01 PM</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 9 September, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2506,7 +2518,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2520,7 +2532,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2532,14 +2544,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2549,14 +2561,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2582,14 +2594,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2605,7 +2617,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2615,49 +2627,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
         <v>46</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2525.0650000000001</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>167</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>168</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>41</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>169</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2543.0650000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>171</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>172</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>173</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2891,10 +2936,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>62.7500</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
   </si>
   <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
@@ -1759,7 +1768,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1776,7 +1785,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1792,7 +1801,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,11 +1910,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>35</v>
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,11 +1943,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>35</v>
@@ -1983,20 +1992,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2007,7 +2016,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2023,13 +2032,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2056,7 +2065,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2139,7 +2148,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2172,7 +2181,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2271,7 +2280,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2320,21 +2329,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2370,7 +2379,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2403,7 +2412,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2452,7 +2461,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2485,7 +2494,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2495,11 +2504,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2551,7 +2560,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2565,7 +2574,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2660,49 +2669,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>171</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>41</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>172</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2543.0650000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>171</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>172</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>173</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2589.0650000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>174</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>175</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>176</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2941,10 +2983,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -533,7 +533,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:02 PM</t>
+    <t>Tuesday, 9 September, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BRONCHOPRO 7.5MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
     <t>CAL-MAG D CAPS</t>
   </si>
   <si>
@@ -143,6 +152,15 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
   </si>
   <si>
@@ -242,6 +260,24 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>FIRSTVOC HIAR SHAMPOO 200ML</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -326,9 +362,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>49.5000</t>
   </si>
   <si>
@@ -362,6 +395,15 @@
     <t>13.8600</t>
   </si>
   <si>
+    <t>RESPOVAN 120 ML SYRUP</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -431,18 +473,21 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -533,7 +578,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:11 PM</t>
+    <t>Tuesday, 9 September, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,24 +1417,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1398,7 +1443,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1411,7 +1456,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1438,7 +1483,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1448,14 +1493,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1464,31 +1509,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1497,14 +1542,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1514,11 +1559,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>35</v>
@@ -1530,14 +1575,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1547,14 +1592,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1570,7 +1615,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1580,14 +1625,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1596,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1613,11 +1658,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1629,14 +1674,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1646,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1662,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1679,14 +1724,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1695,14 +1740,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1712,11 +1757,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>35</v>
@@ -1728,20 +1773,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1752,7 +1797,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1768,7 +1813,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1801,13 +1846,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1818,7 +1863,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1834,7 +1879,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1867,21 +1912,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1893,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1910,14 +1955,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1926,14 +1971,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1943,11 +1988,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>35</v>
@@ -1959,14 +2004,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1976,11 +2021,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>35</v>
@@ -1992,14 +2037,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2009,14 +2054,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2025,31 +2070,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2058,14 +2103,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2075,14 +2120,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2091,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2108,14 +2153,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2124,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2141,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2157,28 +2202,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2190,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2207,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2223,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2240,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,14 +2318,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2289,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2306,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2322,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2339,11 +2384,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2355,31 +2400,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2388,31 +2433,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2421,31 +2466,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2454,28 +2499,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2487,7 +2532,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2500,15 +2545,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2520,28 +2565,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2553,28 +2598,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2586,31 +2631,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2619,31 +2664,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,24 +2697,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2685,7 +2730,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2698,53 +2743,251 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>171</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>172</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>44</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>173</v>
       </c>
-      <c t="s" r="Q53" s="12">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>175</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>58</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>44</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>176</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>178</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2589.0650000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>174</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>175</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>176</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>44</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>179</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>180</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>181</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>44</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>163</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>183</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>184</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>44</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>185</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>186</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>44</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>187</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3126.5650000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>189</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>190</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>191</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2988,10 +3231,40 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:19 PM</t>
+    <t>Tuesday, 9 September, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:31 PM</t>
+    <t>Tuesday, 9 September, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:36 PM</t>
+    <t>Tuesday, 9 September, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>COLI-URINAL EFF. GR. 60 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -209,12 +227,6 @@
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -251,13 +263,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>47.5200</t>
+    <t>63.3600</t>
   </si>
   <si>
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
@@ -578,7 +590,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:42 PM</t>
+    <t>Tuesday, 9 September, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,7 +1396,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1394,14 +1406,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1410,14 +1422,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1434,7 +1446,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1450,24 +1462,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1476,20 +1488,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1500,7 +1512,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1516,13 +1528,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1533,7 +1545,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1549,21 +1561,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>35</v>
@@ -1575,14 +1587,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1592,14 +1604,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1608,14 +1620,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1625,14 +1637,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1681,7 +1693,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1691,14 +1703,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1707,14 +1719,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1724,11 +1736,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1740,14 +1752,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1757,14 +1769,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1790,14 +1802,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1823,14 +1835,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1839,31 +1851,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1889,14 +1901,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1905,7 +1917,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1918,15 +1930,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1938,14 +1950,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1955,14 +1967,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1971,31 +1983,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2054,14 +2066,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2077,7 +2089,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2087,11 +2099,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>35</v>
@@ -2103,14 +2115,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2124,10 +2136,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2136,14 +2148,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2153,11 +2165,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>35</v>
@@ -2169,14 +2181,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,11 +2198,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2202,31 +2214,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2268,31 +2280,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,11 +2330,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2363,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2367,14 +2379,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,11 +2396,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2433,7 +2445,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2466,14 +2478,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2495,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2532,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2549,14 +2561,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2565,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,11 +2594,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2598,28 +2610,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2631,31 +2643,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2664,28 +2676,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2697,31 +2709,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,7 +2742,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2743,15 +2755,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2763,28 +2775,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2796,28 +2808,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2829,28 +2841,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2862,31 +2874,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,28 +2907,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2928,66 +2940,132 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>187</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>188</v>
       </c>
-      <c t="s" r="Q59" s="12">
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>47</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>189</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>190</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>47</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>191</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3126.5650000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>189</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>190</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>191</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3299.4050000000002</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>193</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>194</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>195</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3261,10 +3339,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -590,7 +590,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:49 PM</t>
+    <t>Tuesday, 9 September, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BRONCHOPRO 7.5MG/ML ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -515,7 +524,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -590,7 +599,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:51 PM</t>
+    <t>Tuesday, 9 September, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1462,7 +1471,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1479,7 +1488,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1495,24 +1504,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1521,20 +1530,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1545,7 +1554,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1561,13 +1570,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1578,7 +1587,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1594,21 +1603,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>35</v>
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1637,14 +1646,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1693,7 +1702,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1710,7 +1719,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1726,7 +1735,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1769,11 +1778,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1908,7 +1917,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1924,13 +1933,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1957,13 +1966,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1974,7 +1983,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1990,13 +1999,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2007,7 +2016,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2029,7 +2038,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2056,7 +2065,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2122,7 +2131,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2198,11 +2207,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2264,7 +2273,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2287,24 +2296,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2320,13 +2329,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2353,7 +2362,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2363,14 +2372,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2403,7 +2412,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2469,7 +2478,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,7 +2511,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2601,7 +2610,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2650,7 +2659,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2683,21 +2692,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2709,31 +2718,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2755,7 +2764,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2766,7 +2775,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2782,13 +2791,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2799,7 +2808,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2815,13 +2824,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2848,21 +2857,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2874,20 +2883,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2914,13 +2923,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2928,7 +2937,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2940,31 +2949,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2986,18 +2995,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3013,59 +3022,92 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>193</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>12</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>50</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>194</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3299.4050000000002</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>193</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>194</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>195</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3329.1350000000002</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>196</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>197</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>198</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3349,10 +3391,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>-11.8800</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -194,9 +209,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -233,6 +245,18 @@
     <t>35.7000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -269,6 +293,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -281,6 +314,18 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -317,6 +362,18 @@
     <t>62.7500</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>-17.8200</t>
+  </si>
+  <si>
     <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
   </si>
   <si>
@@ -350,9 +407,6 @@
     <t>LIMITLESS MILGA MAX 30 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>248.00</t>
   </si>
   <si>
@@ -407,13 +461,13 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:5</t>
   </si>
   <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>13.8600</t>
+    <t>20.5800</t>
   </si>
   <si>
     <t>RESPOVAN 120 ML SYRUP</t>
@@ -446,6 +500,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -458,22 +521,19 @@
     <t>URIPAN 5MG 30 TAB.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>62.0000</t>
+    <t>93.0000</t>
   </si>
   <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
@@ -509,13 +569,22 @@
     <t>14:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>56:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -566,30 +635,27 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>كمامات قطع</t>
   </si>
   <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -599,7 +665,16 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 7:52 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>Tuesday, 9 September, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1306,7 +1381,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1316,14 +1391,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1332,14 +1407,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1405,7 +1480,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1415,14 +1490,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1431,14 +1506,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1448,14 +1523,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1464,14 +1539,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1481,14 +1556,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1497,14 +1572,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1514,14 +1589,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1530,31 +1605,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1563,31 +1638,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1596,31 +1671,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1629,31 +1704,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1662,14 +1737,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1679,14 +1754,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1695,14 +1770,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1719,7 +1794,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1728,14 +1803,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1745,14 +1820,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1761,14 +1836,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1778,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1794,14 +1869,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1811,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1827,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1844,11 +1919,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1860,14 +1935,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1877,14 +1952,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1893,14 +1968,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1917,7 +1992,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1933,7 +2008,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1943,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1959,31 +2034,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1992,14 +2067,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2009,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2025,31 +2100,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2058,14 +2133,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,11 +2150,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2091,31 +2166,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2124,14 +2199,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2141,14 +2216,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2157,28 +2232,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2190,14 +2265,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2207,14 +2282,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2223,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2240,14 +2315,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2256,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2273,14 +2348,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2289,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2306,14 +2381,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2322,28 +2397,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2355,14 +2430,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2372,14 +2447,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2388,14 +2463,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2405,14 +2480,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2421,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2438,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2454,14 +2529,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2471,14 +2546,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2487,28 +2562,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2520,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2537,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2553,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2570,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2603,14 +2678,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2619,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2652,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2669,11 +2744,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2685,14 +2760,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2702,14 +2777,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2718,31 +2793,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2751,31 +2826,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2784,31 +2859,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,28 +2892,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2850,7 +2925,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2863,15 +2938,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2883,28 +2958,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2916,28 +2991,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2949,28 +3024,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2982,31 +3057,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>67</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3015,31 +3090,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3048,66 +3123,363 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3329.1350000000002</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>196</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>197</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>198</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>55</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>199</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>201</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>202</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>55</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>203</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>205</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>68</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>55</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>206</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>208</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>12</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>55</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>209</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>211</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>37</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>55</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>188</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>212</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>213</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>55</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>193</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>214</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>172</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>55</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>209</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>215</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>55</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>216</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>218</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>219</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>55</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>220</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3514.2649999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>221</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>222</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>223</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3396,10 +3768,55 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -293,6 +293,18 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -305,13 +317,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>63.3600</t>
+    <t>79.2000</t>
   </si>
   <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
@@ -365,9 +377,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -527,9 +536,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -593,7 +599,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -674,7 +680,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 8:14 PM</t>
+    <t>Tuesday, 9 September, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2047,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,7 +2057,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2074,7 +2080,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2123,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,14 +2139,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2166,31 +2172,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2199,14 +2205,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,14 +2222,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,7 +2238,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2249,11 +2255,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2298,7 +2304,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2311,15 +2317,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,14 +2354,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2387,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2420,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,11 +2453,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>40</v>
@@ -2463,14 +2469,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2484,10 +2490,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2496,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,11 +2519,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>40</v>
@@ -2529,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>40</v>
@@ -2562,31 +2568,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,31 +2634,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,11 +2684,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,11 +2750,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,7 +2799,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2849,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>40</v>
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2948,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2991,28 +2997,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3024,28 +3030,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3057,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,7 +3162,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,11 +3212,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,11 +3245,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,11 +3278,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,11 +3311,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,11 +3377,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,49 +3443,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3514.2649999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>217</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>55</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>218</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>220</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
         <v>221</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>55</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>222</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3556.8649999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
         <v>223</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>224</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>225</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3813,10 +3885,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -314,6 +314,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -473,9 +482,6 @@
     <t>10:5</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>20.5800</t>
   </si>
   <si>
@@ -525,6 +531,12 @@
   </si>
   <si>
     <t>24.5000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>URIPAN 5MG 30 TAB.</t>
@@ -2146,7 +2158,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2156,14 +2168,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2245,13 +2257,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2278,13 +2290,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2295,7 +2307,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2311,13 +2323,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2328,7 +2340,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2344,13 +2356,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2361,7 +2373,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2377,7 +2389,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2394,7 +2406,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2410,7 +2422,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2427,7 +2439,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2443,7 +2455,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2476,7 +2488,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2542,7 +2554,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,11 +2564,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>40</v>
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,11 +2597,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>40</v>
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,7 +2630,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2641,24 +2653,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2674,13 +2686,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2707,7 +2719,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2750,14 +2762,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,11 +2894,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>40</v>
@@ -2898,7 +2910,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2915,7 +2927,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2938,7 +2950,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,14 +2976,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,14 +2993,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,14 +3042,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,11 +3059,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3063,28 +3075,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3096,28 +3108,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,7 +3240,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,11 +3356,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3400,7 +3412,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,14 +3422,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3443,11 +3455,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3499,7 +3511,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,49 +3521,115 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3556.8649999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>221</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>55</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>222</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>223</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c t="s" r="Q74" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>224</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>225</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>55</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>226</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3621.8649999999998</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>227</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>228</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>229</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3895,10 +3973,20 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -692,7 +692,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 8:19 PM</t>
+    <t>Tuesday, 9 September, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -419,6 +419,12 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -692,7 +698,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 8:23 PM</t>
+    <t>Tuesday, 9 September, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2527,18 +2533,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2597,7 +2603,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2620,7 +2626,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2630,11 +2636,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>40</v>
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2663,11 +2669,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>40</v>
@@ -2679,31 +2685,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2712,28 +2718,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2745,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2762,14 +2768,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2927,11 +2933,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>40</v>
@@ -2943,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2960,7 +2966,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2983,7 +2989,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2993,7 +2999,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3016,7 +3022,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3075,7 +3081,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3092,11 +3098,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,11 +3131,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3141,28 +3147,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3191,11 +3197,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3228,10 +3234,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3240,7 +3246,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3323,11 +3329,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3455,11 +3461,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3511,7 +3517,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3587,49 +3593,82 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>226</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>227</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>55</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>228</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3621.8649999999998</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>227</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>228</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3735.8649999999998</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
         <v>229</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>230</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>231</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3983,10 +4022,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -698,7 +698,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 8:28 PM</t>
+    <t>Tuesday, 9 September, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3303,7 +3303,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3638,7 +3638,7 @@
     </row>
     <row r="77" ht="25.5" customHeight="1">
       <c r="P77" s="13">
-        <v>3735.8649999999998</v>
+        <v>3738.8649999999998</v>
       </c>
       <c r="Q77" s="13"/>
     </row>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -513,9 +522,6 @@
   </si>
   <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
-  </si>
-  <si>
-    <t>58.00</t>
   </si>
   <si>
     <t>58.0000</t>
@@ -2065,7 +2071,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,7 +2081,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2098,7 +2104,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2112,7 +2118,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>40</v>
@@ -2124,7 +2130,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2141,11 +2147,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>40</v>
@@ -2164,7 +2170,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2181,7 +2187,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2197,7 +2203,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,14 +2213,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2223,14 +2229,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2246,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2296,13 +2302,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2329,13 +2335,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2346,7 +2352,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2362,13 +2368,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2379,7 +2385,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2395,13 +2401,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2412,7 +2418,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2428,7 +2434,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2445,7 +2451,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2461,7 +2467,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2478,7 +2484,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2494,7 +2500,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2527,24 +2533,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,7 +2559,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2566,18 +2572,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2609,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2626,7 +2632,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,11 +2642,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>40</v>
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,11 +2675,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>40</v>
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,7 +2708,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2725,24 +2731,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2758,13 +2764,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2791,7 +2797,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2807,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2824,7 +2830,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2840,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2857,7 +2863,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2907,7 +2913,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2923,7 +2929,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,14 +2939,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,11 +2972,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>40</v>
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,7 +3005,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3022,7 +3028,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,7 +3038,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3055,7 +3061,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3071,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3104,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,7 +3120,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3131,11 +3137,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3180,28 +3186,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3267,10 +3273,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,7 +3285,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>145</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3335,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3351,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,11 +3368,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3378,14 +3384,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3395,11 +3401,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3428,11 +3434,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3461,11 +3467,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3550,7 +3556,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3560,14 +3566,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,14 +3615,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3626,49 +3632,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>228</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>229</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>55</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>230</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3738.8649999999998</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>229</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>230</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3767.8649999999998</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>231</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>232</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>233</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4027,10 +4066,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -566,6 +566,18 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>4:5</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
   </si>
   <si>
@@ -614,9 +626,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -704,7 +713,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 8:29 PM</t>
+    <t>Tuesday, 9 September, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3127,7 +3136,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3153,7 +3162,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3170,11 +3179,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3203,11 +3212,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3219,28 +3228,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3302,14 +3311,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3318,7 +3327,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>148</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3358,7 +3367,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3375,7 +3384,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3424,7 +3433,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3434,11 +3443,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3490,7 +3499,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3523,7 +3532,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3655,7 +3664,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3665,49 +3674,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>231</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>232</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>55</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>233</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3767.8649999999998</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>231</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>232</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>233</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3786.1849999999999</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>234</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>235</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>236</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4071,10 +4113,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -80,426 +80,453 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>0:1</t>
   </si>
   <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>86.1300</t>
+    <t>201.8400</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>611.2800</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>-61.3800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BRONCHOPRO 7.5MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
+    <t>CAL-MAG D CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>COLI-URINAL EFF. GR. 60 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>35.7000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>FIRSTVOC HIAR SHAMPOO 200ML</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>-17.8200</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>GYNO-DAKTARIN 2% VAGINAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>81.8400</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>10:5</t>
+  </si>
+  <si>
+    <t>20.5800</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>AMARYL 4 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>611.2800</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>AMIGRAINE ADCO 30 TABLETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>-61.3800</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BRONCHOPRO 7.5MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>19.5000</t>
-  </si>
-  <si>
-    <t>CAL-MAG D CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPOTEN 25MG  20TAB</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIDOPHAGE 500MG 10 TAB</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>COLI-URINAL EFF. GR. 60 GM</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>35.7000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>FIRSTVOC HIAR SHAMPOO 200ML</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>-17.8200</t>
-  </si>
-  <si>
-    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>81.8400</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>10:5</t>
-  </si>
-  <si>
-    <t>20.5800</t>
-  </si>
-  <si>
     <t>RESPOVAN 120 ML SYRUP</t>
   </si>
   <si>
@@ -527,6 +554,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
@@ -611,6 +647,15 @@
     <t>14:0</t>
   </si>
   <si>
+    <t>بودره نونو 200 ملل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -647,12 +692,6 @@
     <t>شامبو الفيف 200 مل</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات كوين حريمي </t>
   </si>
   <si>
@@ -713,7 +752,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 8:40 PM</t>
+    <t>Tuesday, 9 September, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1536,7 +1575,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1545,7 +1584,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1562,11 +1601,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1578,14 +1617,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1595,14 +1634,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1611,14 +1650,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1628,14 +1667,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1644,7 +1683,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1661,11 +1700,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1677,31 +1716,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1710,7 +1749,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1727,11 +1766,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1743,31 +1782,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1776,14 +1815,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1797,10 +1836,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1809,14 +1848,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1826,14 +1865,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>71</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1842,7 +1881,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1859,11 +1898,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1875,7 +1914,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1892,14 +1931,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1908,14 +1947,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1925,14 +1964,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1941,7 +1980,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1958,11 +1997,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1974,14 +2013,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1991,11 +2030,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2007,14 +2046,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2024,11 +2063,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2040,14 +2079,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2057,14 +2096,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2073,14 +2112,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2090,14 +2129,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2106,14 +2145,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2127,10 +2166,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2139,14 +2178,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2160,10 +2199,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2172,14 +2211,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2189,14 +2228,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2205,14 +2244,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2222,11 +2261,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2238,14 +2277,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2255,14 +2294,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2271,14 +2310,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2292,10 +2331,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>114</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2304,14 +2343,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2321,11 +2360,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2337,28 +2376,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2370,31 +2409,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2403,31 +2442,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2436,31 +2475,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2469,14 +2508,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2486,14 +2525,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2502,14 +2541,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2519,14 +2558,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2535,14 +2574,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2552,14 +2591,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2568,31 +2607,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2601,14 +2640,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2618,14 +2657,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2641,7 +2680,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2658,7 +2697,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2674,7 +2713,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2684,14 +2723,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2700,31 +2739,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2733,14 +2772,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2750,14 +2789,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2766,31 +2805,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2799,14 +2838,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2816,14 +2855,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2832,14 +2871,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,14 +2888,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2865,14 +2904,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,14 +2921,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2898,31 +2937,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2931,14 +2970,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,11 +2987,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2964,14 +3003,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,14 +3020,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>40</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2997,14 +3036,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,14 +3053,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3030,14 +3069,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3047,14 +3086,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3063,7 +3102,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3080,14 +3119,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3096,14 +3135,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,14 +3152,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3129,14 +3168,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,14 +3185,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3162,14 +3201,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,14 +3218,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,14 +3234,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,14 +3251,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3228,7 +3267,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3245,14 +3284,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3261,31 +3300,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,31 +3333,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,7 +3366,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3340,18 +3379,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,7 +3399,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3373,18 +3412,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3393,28 +3432,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3426,28 +3465,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3459,28 +3498,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3492,28 +3531,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3525,7 +3564,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3538,18 +3577,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,31 +3597,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,31 +3630,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3624,28 +3663,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3657,20 +3696,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3681,7 +3720,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3697,59 +3736,257 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3786.1849999999999</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>234</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>54</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>235</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>236</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>237</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>37</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>54</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>217</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>238</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>239</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>54</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>221</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>240</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>32</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>54</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>235</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>241</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>54</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>242</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>245</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>54</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>246</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4287.6450000000004</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>247</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>248</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>249</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4118,10 +4355,40 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>19.5000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CAL-MAG D CAPS</t>
   </si>
   <si>
@@ -203,9 +215,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -341,6 +350,15 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -497,6 +515,12 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
@@ -671,6 +695,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -740,9 +770,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -752,7 +779,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:07 PM</t>
+    <t>Tuesday, 9 September, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1723,13 +1750,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1756,24 +1783,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1782,31 +1809,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1815,28 +1842,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>23</v>
@@ -1848,14 +1875,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1865,14 +1892,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1881,14 +1908,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1898,14 +1925,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1921,7 +1948,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1938,7 +1965,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1954,7 +1981,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1964,11 +1991,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -1980,14 +2007,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1997,14 +2024,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2013,14 +2040,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2030,11 +2057,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2046,14 +2073,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2086,7 +2113,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2096,14 +2123,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2112,14 +2139,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2152,7 +2179,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2162,7 +2189,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2185,7 +2212,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2199,7 +2226,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2228,11 +2255,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2251,7 +2278,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2268,7 +2295,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2284,7 +2311,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2343,14 +2370,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2360,11 +2387,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2409,7 +2436,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2422,15 +2449,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2449,7 +2476,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2466,7 +2493,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2488,7 +2515,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2515,7 +2542,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2532,7 +2559,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2554,7 +2581,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2581,7 +2608,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2598,7 +2625,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2614,7 +2641,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2647,7 +2674,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2664,7 +2691,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2680,7 +2707,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2697,7 +2724,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2713,7 +2740,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2746,24 +2773,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2772,14 +2799,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2789,14 +2816,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2805,31 +2832,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2838,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2855,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2871,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2911,7 +2938,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2921,7 +2948,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2944,24 +2971,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2970,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2987,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3010,7 +3037,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3020,14 +3047,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3036,28 +3063,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3069,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3102,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3135,14 +3162,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3152,11 +3179,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3168,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3192,7 +3219,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3218,14 +3245,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3234,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3251,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3274,7 +3301,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3284,11 +3311,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3300,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3317,14 +3344,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3333,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3350,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3366,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3383,14 +3410,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3399,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3416,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3432,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3449,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3465,28 +3492,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3505,13 +3532,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3538,21 +3565,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3571,24 +3598,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3604,13 +3631,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3621,7 +3648,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3637,21 +3664,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3676,18 +3703,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3696,31 +3723,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3729,28 +3756,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3762,7 +3789,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3775,15 +3802,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3802,21 +3829,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3828,31 +3855,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3861,31 +3888,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3894,31 +3921,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3927,66 +3954,165 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4287.6450000000004</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>247</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>248</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>249</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>250</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>32</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>58</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>245</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>251</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>58</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>252</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>253</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>254</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>58</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>255</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4434.3850000000002</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>256</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>257</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>258</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4385,10 +4511,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -479,6 +479,18 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>LENEX FOOT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -611,6 +623,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>UNITRIN 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t>URIPAN 5MG 30 TAB.</t>
   </si>
   <si>
@@ -665,6 +686,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -779,7 +809,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:22 PM</t>
+    <t>Tuesday, 9 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2872,7 +2902,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,11 +2912,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2898,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2915,7 +2945,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2938,7 +2968,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2952,10 +2982,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2964,14 +2994,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,11 +3011,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -2997,14 +3027,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,11 +3044,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3030,14 +3060,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3070,24 +3100,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,11 +3143,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3129,31 +3159,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3209,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>119</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,11 +3275,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3261,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3294,14 +3324,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,14 +3341,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3327,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3360,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>23</v>
@@ -3393,7 +3423,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3410,7 +3440,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3433,7 +3463,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,14 +3473,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3459,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,11 +3506,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3492,14 +3522,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,28 +3621,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3624,28 +3654,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3657,28 +3687,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3690,31 +3720,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>229</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,14 +3786,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,11 +3803,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3789,14 +3819,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3806,11 +3836,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3822,14 +3852,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3839,14 +3869,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,14 +3885,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,14 +3902,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,14 +3918,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3905,11 +3935,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3921,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3938,11 +3968,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3954,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4004,14 +4034,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,7 +4050,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4037,14 +4067,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,49 +4100,181 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4434.3850000000002</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>258</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>259</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>58</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>241</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>256</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>257</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>258</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>260</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>32</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>58</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>255</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>261</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>58</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>262</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>263</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>264</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>58</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>265</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4632.9350000000004</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>266</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>267</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>268</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4526,10 +4688,30 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -254,13 +254,13 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>25.0000</t>
+    <t>50.0000</t>
   </si>
   <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
@@ -512,9 +512,6 @@
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -533,6 +530,15 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
@@ -809,7 +815,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:23 PM</t>
+    <t>Tuesday, 9 September, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2061,7 +2067,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -3067,7 +3073,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,11 +3083,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3093,7 +3099,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3114,7 +3120,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3126,7 +3132,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3143,7 +3149,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3159,28 +3165,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3192,28 +3198,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3225,14 +3231,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3248,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3258,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,14 +3314,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3341,14 +3347,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3364,7 +3370,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,11 +3380,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3390,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3423,14 +3429,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3456,14 +3462,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,7 +3479,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3496,7 +3502,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,11 +3512,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,7 +3545,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3562,7 +3568,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,14 +3578,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,14 +3594,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,14 +3611,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3621,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,14 +3644,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3654,7 +3660,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3671,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3687,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,11 +3710,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3720,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3743,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,31 +3759,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3793,7 +3799,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3819,14 +3825,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3836,11 +3842,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3852,14 +3858,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3873,10 +3879,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,7 +3891,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3902,14 +3908,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>167</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3951,14 +3957,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3968,11 +3974,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3984,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,11 +4007,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4017,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,11 +4040,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4083,14 +4089,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4100,11 +4106,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4116,14 +4122,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,14 +4139,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4156,7 +4162,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4166,14 +4172,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4182,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,14 +4205,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4222,7 +4228,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,49 +4238,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4632.9350000000004</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>265</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>266</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>58</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>267</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4728.9350000000004</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>268</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>269</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>270</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4708,10 +4747,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>BRONCHOPRO 7.5MG/ML ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -188,12 +200,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
     <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
   </si>
   <si>
@@ -290,9 +296,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -815,7 +818,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:27 PM</t>
+    <t>Tuesday, 9 September, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1756,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1763,14 +1766,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1779,14 +1782,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1803,7 +1806,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1819,13 +1822,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1852,24 +1855,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1878,31 +1881,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1911,24 +1914,24 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1951,7 +1954,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1961,14 +1964,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1977,14 +1980,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1994,14 +1997,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2010,14 +2013,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2027,14 +2030,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2043,14 +2046,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2060,14 +2063,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2076,14 +2079,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2093,11 +2096,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2109,14 +2112,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2126,11 +2129,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2142,14 +2145,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2159,11 +2162,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2175,14 +2178,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2192,14 +2195,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2208,14 +2211,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2225,11 +2228,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>23</v>
@@ -2241,14 +2244,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2258,11 +2261,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>23</v>
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2295,7 +2298,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2314,7 +2317,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2324,11 +2327,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2340,14 +2343,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2373,14 +2376,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2390,14 +2393,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2406,14 +2409,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2423,14 +2426,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2439,14 +2442,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2489,14 +2492,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2512,7 +2515,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2522,11 +2525,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2538,28 +2541,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2571,31 +2574,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2604,31 +2607,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2637,31 +2640,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2670,14 +2673,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2687,14 +2690,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2703,7 +2706,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2720,11 +2723,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2736,14 +2739,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2753,11 +2756,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2769,14 +2772,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2786,14 +2789,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2802,14 +2805,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2819,11 +2822,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>23</v>
@@ -2835,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,11 +2855,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2868,31 +2871,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2901,31 +2904,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2934,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,14 +2954,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2967,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2984,14 +2987,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3007,7 +3010,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3017,14 +3020,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3033,14 +3036,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3050,11 +3053,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3066,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,11 +3086,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3099,14 +3102,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3116,11 +3119,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3132,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3149,14 +3152,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,11 +3185,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3198,28 +3201,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3231,28 +3234,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3264,14 +3267,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3281,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3297,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3330,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3347,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3363,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3380,14 +3383,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3396,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,11 +3416,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3429,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3446,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3462,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3479,11 +3482,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3495,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,11 +3515,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>23</v>
@@ -3528,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,11 +3548,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3561,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3581,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3594,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,14 +3614,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3627,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,14 +3647,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3660,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,14 +3680,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3693,7 +3696,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3710,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3726,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3759,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,31 +3795,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,28 +3828,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3858,28 +3861,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3891,31 +3894,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,7 +3927,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3937,18 +3940,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>81</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,31 +3960,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,28 +3993,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4030,21 +4033,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4056,28 +4059,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4089,28 +4092,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4122,28 +4125,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4162,24 +4165,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,31 +4191,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>32</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4228,24 +4231,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4254,66 +4257,99 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4728.9350000000004</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>267</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>62</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>268</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4777.4449999999997</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
         <v>269</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
         <v>270</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>271</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4752,10 +4788,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t>AUGMENTIN 625MG 10 F.C. TAB.</t>
   </si>
   <si>
@@ -161,6 +173,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BOWELOCARE 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>BRONCHONEER 30 TAB</t>
   </si>
   <si>
@@ -215,9 +236,6 @@
     <t>32.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -371,9 +389,6 @@
     <t>17.2800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
   </si>
   <si>
@@ -395,6 +410,15 @@
     <t>185.0000</t>
   </si>
   <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -416,9 +440,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>-17.8200</t>
   </si>
   <si>
@@ -560,6 +581,18 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -593,6 +626,15 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
@@ -635,12 +677,6 @@
     <t>UNITRIN 25MG 30 CAPS.</t>
   </si>
   <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
     <t>URIPAN 5MG 30 TAB.</t>
   </si>
   <si>
@@ -818,7 +854,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:30 PM</t>
+    <t>Tuesday, 9 September, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1693,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1667,14 +1703,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1683,14 +1719,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1707,7 +1743,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1723,7 +1759,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1733,11 +1769,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>23</v>
@@ -1749,14 +1785,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1789,7 +1825,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1855,24 +1891,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1881,14 +1917,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1898,14 +1934,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1914,7 +1950,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1927,15 +1963,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>23</v>
@@ -1947,14 +1983,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1964,14 +2000,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1980,31 +2016,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2013,14 +2049,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2030,14 +2066,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2046,14 +2082,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2063,14 +2099,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2086,7 +2122,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2096,11 +2132,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2112,14 +2148,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2129,14 +2165,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2145,14 +2181,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2162,11 +2198,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2178,14 +2214,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2195,11 +2231,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2211,14 +2247,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2235,7 +2271,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2251,7 +2287,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2268,7 +2304,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2284,7 +2320,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2294,7 +2330,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2317,7 +2353,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2327,11 +2363,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>23</v>
@@ -2343,14 +2379,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2360,11 +2396,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2376,7 +2412,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2393,14 +2429,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2416,7 +2452,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,14 +2462,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2442,14 +2478,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,11 +2495,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2475,14 +2511,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2508,14 +2544,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2525,11 +2561,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,14 +2594,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2574,7 +2610,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2587,15 +2623,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2624,14 +2660,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2640,7 +2676,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2653,15 +2689,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2673,14 +2709,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2726,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2706,14 +2742,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2739,7 +2775,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2752,15 +2788,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2772,14 +2808,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2805,14 +2841,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2822,14 +2858,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2874,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,14 +2891,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2871,14 +2907,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2924,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2904,31 +2940,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2937,14 +2973,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,14 +2990,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2977,7 +3013,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,11 +3023,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3003,7 +3039,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3016,18 +3052,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3036,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,14 +3089,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,14 +3105,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,11 +3122,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3102,14 +3138,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,14 +3155,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,7 +3188,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3175,7 +3211,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,14 +3221,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3208,7 +3244,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3225,7 +3261,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3241,24 +3277,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,14 +3303,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,11 +3320,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3300,14 +3336,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3333,28 +3369,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3366,14 +3402,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,14 +3419,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3452,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3468,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3485,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3518,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3498,14 +3534,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3522,7 +3558,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3538,7 +3574,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,11 +3584,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3564,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3604,7 +3640,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3630,14 +3666,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,14 +3683,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,14 +3699,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3703,7 +3739,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3749,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3765,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3782,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,7 +3798,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3779,14 +3815,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3795,14 +3831,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,14 +3848,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3828,31 +3864,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3861,28 +3897,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3894,28 +3930,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3927,31 +3963,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,31 +3996,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,28 +4029,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4026,28 +4062,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4059,28 +4095,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4092,31 +4128,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,7 +4161,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4138,18 +4174,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,28 +4194,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4198,24 +4234,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4224,31 +4260,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4257,31 +4293,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4290,66 +4326,231 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4777.4449999999997</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>269</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>272</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>37</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>69</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>250</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>273</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>274</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>69</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>256</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>275</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>32</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>69</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
         <v>270</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>271</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>276</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>12</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>69</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>277</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>278</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>279</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>69</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>280</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5006.9350000000004</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>281</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>282</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>283</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4793,10 +4994,35 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CABELLA 21.3MG/10ML SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CAL-MAG D CAPS</t>
   </si>
   <si>
@@ -416,9 +425,6 @@
     <t>54.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -854,7 +860,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:31 PM</t>
+    <t>Tuesday, 9 September, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1957,24 +1963,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1983,31 +1989,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2023,13 +2029,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2037,10 +2043,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2049,28 +2055,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>23</v>
@@ -2082,14 +2088,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2132,14 +2138,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2155,7 +2161,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2172,7 +2178,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2188,7 +2194,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2198,14 +2204,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2214,14 +2220,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2231,11 +2237,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2264,11 +2270,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2320,7 +2326,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2337,7 +2343,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2353,7 +2359,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2386,7 +2392,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2396,7 +2402,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2419,7 +2425,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2433,7 +2439,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>23</v>
@@ -2445,7 +2451,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2462,11 +2468,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2485,7 +2491,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2502,7 +2508,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2518,7 +2524,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2528,14 +2534,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2568,7 +2574,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2584,7 +2590,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2617,7 +2623,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2627,14 +2633,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2643,14 +2649,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2660,11 +2666,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2683,13 +2689,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2716,13 +2722,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2733,7 +2739,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2749,7 +2755,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2763,7 +2769,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2775,31 +2781,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2808,31 +2814,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2848,7 +2854,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2874,7 +2880,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2891,11 +2897,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2924,11 +2930,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2957,14 +2963,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2973,7 +2979,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2990,11 +2996,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>23</v>
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3023,11 +3029,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3039,31 +3045,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3079,24 +3085,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3112,7 +3118,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3122,14 +3128,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3145,7 +3151,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3155,14 +3161,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3204,14 +3210,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3221,7 +3227,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3244,7 +3250,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3254,11 +3260,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3270,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3287,7 +3293,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3310,7 +3316,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3320,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3343,7 +3349,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3357,7 +3363,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3369,28 +3375,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3402,28 +3408,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3551,14 +3557,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3567,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3600,7 +3606,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3617,14 +3623,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3640,7 +3646,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,11 +3656,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3666,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,14 +3689,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3699,14 +3705,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,11 +3722,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3732,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3749,7 +3755,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3772,7 +3778,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3788,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3798,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3815,11 +3821,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3838,7 +3844,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,14 +3854,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3864,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3881,14 +3887,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3930,7 +3936,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3947,11 +3953,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,11 +3986,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3996,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4013,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,31 +4035,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>58</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4069,21 +4075,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4095,28 +4101,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4128,20 +4134,20 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4149,10 +4155,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4161,7 +4167,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4174,18 +4180,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>89</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4194,31 +4200,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4227,28 +4233,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4260,28 +4266,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4293,28 +4299,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4326,28 +4332,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4359,28 +4365,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4392,31 +4398,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4432,24 +4438,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,31 +4464,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4498,59 +4504,92 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5006.9350000000004</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
         <v>281</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>72</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
         <v>282</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5033.9350000000004</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
         <v>283</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>284</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>285</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5019,10 +5058,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CABELLA 21.3MG/10ML SYRUP 125ML</t>
   </si>
   <si>
@@ -341,357 +350,366 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>FIRSTVOC HIAR SHAMPOO 200ML</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
     <t>4:2</t>
   </si>
   <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DIGESTIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
+    <t>-17.8200</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>GYNO-DAKTARIN 2% VAGINAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>LENEX FOOT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>81.8400</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>10:5</t>
+  </si>
+  <si>
+    <t>20.5800</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>RESPOVAN 120 ML SYRUP</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>T4-THYRO 100MCG 100 TABLETS</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>24.5000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>UNITRIN 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>URIPAN 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>FIRSTVOC HIAR SHAMPOO 200ML</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>-17.8200</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>GYNO-DAKTARIN 2% VAGINAL CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>LENEX FOOT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>81.8400</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>10:5</t>
-  </si>
-  <si>
-    <t>20.5800</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>RESPOVAN 120 ML SYRUP</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 10MG 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>T4-THYRO 100MCG 100 TABLETS</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>24.5000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>UNITRIN 25MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>URIPAN 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -776,81 +794,81 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>شامبو الفيف 200 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات كوين حريمي </t>
+  </si>
+  <si>
+    <t>9:4</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>كمامات قطع</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>شامبو الفيف 200 مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات كوين حريمي </t>
-  </si>
-  <si>
-    <t>9:4</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>قطن ازن صغير</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>كمامات قطع</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -860,7 +878,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:33 PM</t>
+    <t>Tuesday, 9 September, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1963,7 +1981,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1980,7 +1998,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1996,24 +2014,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2022,31 +2040,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2062,13 +2080,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2076,10 +2094,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2088,28 +2106,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>23</v>
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2138,14 +2156,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2154,14 +2172,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2171,14 +2189,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2194,7 +2212,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2211,7 +2229,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2227,7 +2245,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2270,11 +2288,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2303,11 +2321,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2359,7 +2377,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2376,7 +2394,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2392,7 +2410,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2425,7 +2443,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2435,7 +2453,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2458,7 +2476,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2472,10 +2490,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2484,7 +2502,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2501,11 +2519,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2517,14 +2535,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2534,14 +2552,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2550,14 +2568,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2574,7 +2592,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2590,7 +2608,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2600,14 +2618,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2616,14 +2634,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2633,14 +2651,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2649,14 +2667,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2682,14 +2700,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2699,11 +2717,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2715,28 +2733,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2748,31 +2766,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2781,14 +2799,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2798,11 +2816,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2814,31 +2832,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2847,31 +2865,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2897,14 +2915,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2913,7 +2931,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2930,11 +2948,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2963,11 +2981,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2996,14 +3014,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3012,7 +3030,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>23</v>
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3062,11 +3080,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -3078,31 +3096,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3111,31 +3129,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3144,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3161,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3210,14 +3228,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3227,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3243,14 +3261,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3260,11 +3278,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3276,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,11 +3311,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3309,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,11 +3344,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3342,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,11 +3410,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3408,28 +3426,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3441,28 +3459,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3474,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3491,14 +3509,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3507,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>199</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3540,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,14 +3575,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3608,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3641,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,7 +3657,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3656,14 +3674,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3672,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,11 +3707,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3705,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3740,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,11 +3773,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3771,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,11 +3806,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3804,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,11 +3839,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3905,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,14 +3938,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,14 +3971,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3969,7 +3987,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3986,11 +4004,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4002,14 +4020,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,11 +4037,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4035,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4068,31 +4086,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,28 +4119,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4134,28 +4152,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4167,31 +4185,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4200,7 +4218,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4213,18 +4231,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>92</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,31 +4251,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4266,28 +4284,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4299,28 +4317,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4332,28 +4350,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4365,28 +4383,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4398,28 +4416,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4431,20 +4449,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4452,10 +4470,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4464,31 +4482,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4497,31 +4515,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4530,66 +4548,99 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5033.9350000000004</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>283</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>284</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>286</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>287</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>75</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>288</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>285</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5096.3249999999998</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>289</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>290</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>291</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5063,10 +5114,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -221,7 +233,7 @@
     <t>99.00</t>
   </si>
   <si>
-    <t>32.6700</t>
+    <t>65.3400</t>
   </si>
   <si>
     <t>CABELLA 21.3MG/10ML SYRUP 125ML</t>
@@ -272,9 +284,6 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>COLI-URINAL EFF. GR. 60 GM</t>
   </si>
   <si>
@@ -335,9 +344,6 @@
     <t>142.50</t>
   </si>
   <si>
-    <t>47.0250</t>
-  </si>
-  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -416,9 +422,6 @@
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
     <t>34.0000</t>
   </si>
   <si>
@@ -524,6 +527,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LENEX FOOT CREAM 50 GM</t>
   </si>
   <si>
@@ -680,6 +692,9 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>TELFAST DECONGESTANT 60/120MG 10 EXT. REL. TABS.</t>
+  </si>
+  <si>
     <t>TOBOLANZA 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -689,6 +704,15 @@
     <t>24.5000</t>
   </si>
   <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -878,7 +902,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:37 PM</t>
+    <t>Tuesday, 9 September, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1602,7 +1626,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1611,14 +1635,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1651,7 +1675,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1661,14 +1685,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1694,14 +1718,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1734,7 +1758,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1750,7 +1774,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1760,14 +1784,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1776,14 +1800,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1800,7 +1824,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1816,7 +1840,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1826,14 +1850,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1842,14 +1866,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1859,14 +1883,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1875,14 +1899,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1899,7 +1923,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1915,7 +1939,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1925,14 +1949,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1941,14 +1965,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1965,7 +1989,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1981,7 +2005,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1991,14 +2015,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2007,14 +2031,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2024,14 +2048,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2040,31 +2064,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2073,31 +2097,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2106,31 +2130,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2139,31 +2163,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2229,7 +2253,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2245,7 +2269,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2262,7 +2286,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2278,7 +2302,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2288,14 +2312,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2304,14 +2328,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2321,11 +2345,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2337,14 +2361,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2354,11 +2378,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2370,14 +2394,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2410,7 +2434,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2427,7 +2451,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2443,7 +2467,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2457,10 +2481,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2469,14 +2493,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2486,14 +2510,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2502,14 +2526,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2526,7 +2550,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2542,7 +2566,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2552,14 +2576,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2568,14 +2592,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2585,14 +2609,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2601,14 +2625,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2618,14 +2642,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2634,14 +2658,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2651,14 +2675,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2674,7 +2698,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2684,14 +2708,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2717,14 +2741,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2733,14 +2757,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2750,11 +2774,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2766,28 +2790,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2799,31 +2823,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2832,14 +2856,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2849,14 +2873,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2865,31 +2889,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2898,31 +2922,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2931,14 +2955,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2948,14 +2972,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2964,7 +2988,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2981,11 +3005,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2997,14 +3021,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3014,11 +3038,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3030,14 +3054,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3047,14 +3071,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3063,14 +3087,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3080,14 +3104,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3096,14 +3120,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3113,14 +3137,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3129,31 +3153,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3162,31 +3186,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3195,14 +3219,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3212,14 +3236,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3235,7 +3259,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,7 +3269,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3261,14 +3285,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3278,14 +3302,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3301,7 +3325,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3311,14 +3335,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3327,14 +3351,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,14 +3368,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,14 +3384,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3401,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3417,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,14 +3434,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3433,7 +3457,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,14 +3467,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3459,28 +3483,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3492,14 +3516,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,11 +3533,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3525,31 +3549,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3582,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,14 +3599,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3591,14 +3615,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,14 +3632,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3624,14 +3648,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3665,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,14 +3681,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,14 +3698,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3707,14 +3731,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3723,14 +3747,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,14 +3764,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3756,14 +3780,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,14 +3797,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3789,14 +3813,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,14 +3830,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3822,14 +3846,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,14 +3863,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3855,14 +3879,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3896,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3888,7 +3912,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3905,14 +3929,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3928,7 +3952,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3954,14 +3978,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,14 +3995,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +4011,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4028,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4020,14 +4044,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4061,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4094,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4119,28 +4143,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4152,28 +4176,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4185,28 +4209,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4218,31 +4242,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>261</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,31 +4275,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,28 +4308,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4317,28 +4341,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4350,31 +4374,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,31 +4407,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4416,28 +4440,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4449,28 +4473,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4482,31 +4506,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,31 +4539,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4548,7 +4572,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4561,18 +4585,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4581,66 +4605,198 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>288</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>289</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>79</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>271</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>290</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>36</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>79</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>285</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5096.3249999999998</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>289</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>290</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>291</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>12</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>79</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>292</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>294</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>295</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>79</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>296</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5154.9700000000003</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>297</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>298</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>299</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5119,10 +5275,30 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -902,7 +902,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:39 PM</t>
+    <t>Tuesday, 9 September, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -347,12 +356,6 @@
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -902,7 +905,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:46 PM</t>
+    <t>Tuesday, 9 September, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2467,7 +2470,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2481,10 +2484,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2493,14 +2496,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2510,14 +2513,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2533,7 +2536,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2543,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2559,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2580,10 +2583,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2592,7 +2595,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2609,11 +2612,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2625,14 +2628,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,14 +2645,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2658,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2675,14 +2678,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2724,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2741,14 +2744,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2757,14 +2760,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2774,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2797,7 +2800,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2807,11 +2810,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2823,28 +2826,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2856,31 +2859,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2889,14 +2892,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2906,11 +2909,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2922,31 +2925,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2955,31 +2958,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3021,7 +3024,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3038,11 +3041,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3186,31 +3189,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3219,31 +3222,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3285,14 +3288,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3302,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3318,14 +3321,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3335,14 +3338,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3358,7 +3361,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,11 +3404,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>27</v>
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3434,11 +3437,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3467,11 +3470,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3533,11 +3536,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3549,28 +3552,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3582,28 +3585,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3632,14 +3635,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,7 +3783,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3919,7 +3922,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -3945,7 +3948,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3962,11 +3965,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -4051,7 +4054,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,7 +4179,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4193,11 +4196,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,11 +4229,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,31 +4278,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4358,11 +4361,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4391,14 +4394,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>269</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4407,7 +4410,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4424,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>98</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,14 +4443,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,11 +4493,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4513,7 +4516,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4523,11 +4526,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,11 +4559,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4572,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4589,11 +4592,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4645,7 +4648,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,14 +4658,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4671,14 +4674,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,14 +4691,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4711,7 +4714,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4721,14 +4724,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4754,49 +4757,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5154.9700000000003</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>295</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>296</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>79</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
         <v>297</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5183.9700000000003</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>298</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
         <v>299</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>300</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5295,10 +5331,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -92,9 +101,6 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -662,6 +668,9 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>SEDOKAST 10MG 10 F.C. TAB</t>
+  </si>
+  <si>
     <t>SOFENACIN 10MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -695,6 +704,15 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>TELFAST DECONGESTANT 60/120MG 10 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -803,9 +821,6 @@
     <t>80.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -905,7 +920,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:48 PM</t>
+    <t>Tuesday, 9 September, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1612,7 +1627,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1622,14 +1637,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1655,14 +1670,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1671,14 +1686,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1688,14 +1703,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1721,14 +1736,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1803,14 +1818,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1820,14 +1835,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1853,14 +1868,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2100,31 +2115,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2140,24 +2155,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2166,31 +2181,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2206,24 +2221,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2239,7 +2254,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,11 +2429,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2536,7 +2551,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2619,7 +2634,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2635,7 +2650,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2767,7 +2782,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2866,21 +2881,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2892,31 +2907,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2932,7 +2947,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2946,10 +2961,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2958,31 +2973,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2991,31 +3006,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3057,7 +3072,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,11 +3122,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3173,14 +3188,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3222,31 +3237,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3262,24 +3277,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3320,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3328,7 +3343,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3361,7 +3376,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,14 +3386,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3460,7 +3475,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3526,7 +3541,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3551,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3559,7 +3574,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3573,7 +3588,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3585,28 +3600,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3618,28 +3633,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3684,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3716,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>209</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3782,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,14 +3815,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,11 +3848,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3849,14 +3864,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3881,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3882,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3915,14 +3930,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,14 +3947,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3948,14 +3963,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3980,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,7 +3996,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3998,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,14 +4079,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4097,14 +4112,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4128,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4146,14 +4161,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,14 +4178,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>48</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4179,14 +4194,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,14 +4211,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4244,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4260,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,14 +4277,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4310,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,28 +4326,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4344,7 +4359,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4357,15 +4372,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4377,31 +4392,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,31 +4425,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>270</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,31 +4458,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,28 +4491,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4509,7 +4524,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4522,18 +4537,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,31 +4557,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,28 +4590,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4608,7 +4623,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4621,15 +4636,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4641,28 +4656,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>185</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4674,31 +4689,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,31 +4722,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,31 +4755,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,66 +4788,165 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5183.9700000000003</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>296</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>38</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>81</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>291</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>297</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>12</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>81</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>298</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>299</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c t="s" r="Q107" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>300</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>301</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>81</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>302</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5341.9700000000003</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>303</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>304</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>305</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5336,10 +5450,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -401,9 +410,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>95.0400</t>
   </si>
   <si>
@@ -920,7 +926,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:49 PM</t>
+    <t>Tuesday, 9 September, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2551,7 +2557,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2565,10 +2571,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2627,14 +2633,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2650,7 +2656,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2664,10 +2670,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2676,7 +2682,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2693,7 +2699,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2716,7 +2722,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2733,7 +2739,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2749,7 +2755,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2759,14 +2765,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2775,14 +2781,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2815,7 +2821,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2825,14 +2831,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2891,11 +2897,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2914,21 +2920,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2940,31 +2946,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2980,7 +2986,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2994,7 +3000,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -3006,31 +3012,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3039,31 +3045,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3072,14 +3078,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3089,14 +3095,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3105,7 +3111,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3122,11 +3128,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3155,11 +3161,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3204,7 +3210,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3221,11 +3227,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -3237,14 +3243,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,11 +3260,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -3270,31 +3276,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3310,24 +3316,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3376,7 +3382,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,14 +3392,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3409,7 +3415,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,7 +3491,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3508,7 +3514,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,11 +3524,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,7 +3557,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3574,7 +3580,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3590,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3607,7 +3613,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3621,7 +3627,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3633,28 +3639,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3666,28 +3672,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3699,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,14 +3722,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3732,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,14 +3755,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3765,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,14 +3821,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3831,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3864,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3887,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,7 +3903,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3937,7 +3943,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,11 +3953,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,14 +4002,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,11 +4019,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>24</v>
@@ -4029,14 +4035,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,11 +4052,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>24</v>
@@ -4062,14 +4068,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,11 +4085,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>24</v>
@@ -4095,7 +4101,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4112,11 +4118,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>24</v>
@@ -4128,14 +4134,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,7 +4151,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4168,7 +4174,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,11 +4184,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>24</v>
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,11 +4217,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>24</v>
@@ -4234,7 +4240,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4266,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,7 +4332,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4343,11 +4349,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4359,14 +4365,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,11 +4382,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4392,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4409,14 +4415,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,31 +4431,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4465,7 +4471,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4498,7 +4504,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,11 +4514,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4524,14 +4530,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4545,10 +4551,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,7 +4563,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4574,14 +4580,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>100</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4590,14 +4596,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,14 +4613,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4640,11 +4646,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4656,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4673,11 +4679,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4689,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4706,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4722,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,11 +4745,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4755,14 +4761,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4772,11 +4778,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4788,14 +4794,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,14 +4811,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4828,7 +4834,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,14 +4844,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4854,14 +4860,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,14 +4877,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4887,14 +4893,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,49 +4910,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5341.9700000000003</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>302</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
         <v>303</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>81</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>304</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5389.9700000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>305</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>306</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>307</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5465,10 +5504,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -926,7 +926,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 9:59 PM</t>
+    <t>Tuesday, 9 September, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
   </si>
   <si>
@@ -716,9 +725,6 @@
     <t>160.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>TELFAST DECONGESTANT 60/120MG 10 EXT. REL. TABS.</t>
   </si>
   <si>
@@ -824,9 +830,6 @@
     <t>بودره نونو 200 ملل</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -926,7 +929,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:09 PM</t>
+    <t>Tuesday, 9 September, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1633,7 +1636,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1643,14 +1646,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1666,7 +1669,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1676,14 +1679,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1692,14 +1695,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1716,7 +1719,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1725,14 +1728,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1742,14 +1745,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1758,14 +1761,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1775,14 +1778,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1791,14 +1794,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1808,14 +1811,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1824,14 +1827,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1841,14 +1844,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1857,14 +1860,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1881,7 +1884,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1897,7 +1900,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1907,14 +1910,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1923,14 +1926,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1947,7 +1950,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1963,7 +1966,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1980,7 +1983,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1996,7 +1999,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2006,14 +2009,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2022,14 +2025,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2046,7 +2049,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2062,7 +2065,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2072,14 +2075,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2088,14 +2091,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2112,7 +2115,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2128,7 +2131,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2145,7 +2148,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2161,24 +2164,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2187,31 +2190,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2227,13 +2230,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2241,10 +2244,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2253,31 +2256,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2303,14 +2306,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2343,7 +2346,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2359,7 +2362,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2376,7 +2379,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2392,7 +2395,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2418,14 +2421,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,11 +2471,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2524,7 +2527,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2541,7 +2544,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2557,7 +2560,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2574,7 +2577,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2590,7 +2593,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2604,10 +2607,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2616,14 +2619,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,14 +2636,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,14 +2669,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2689,7 +2692,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2703,10 +2706,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2755,7 +2758,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2772,7 +2775,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2788,7 +2791,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2801,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2831,14 +2834,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2864,14 +2867,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2887,7 +2890,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2897,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,11 +2933,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2946,24 +2949,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2986,13 +2989,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3000,10 +3003,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3012,14 +3015,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3029,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3052,13 +3055,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3069,7 +3072,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3085,24 +3088,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3118,7 +3121,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3128,14 +3131,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3184,7 +3187,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3217,7 +3220,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3234,7 +3237,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3250,7 +3253,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3267,7 +3270,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3283,7 +3286,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3300,7 +3303,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3316,24 +3319,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3342,31 +3345,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3382,7 +3385,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3396,10 +3399,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3408,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3514,7 +3517,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3580,7 +3583,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,14 +3626,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3639,14 +3642,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,11 +3659,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3679,13 +3682,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3712,13 +3715,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3745,7 +3748,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3758,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3771,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,14 +3791,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>216</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3844,7 +3847,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3953,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,7 +3989,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4009,7 +4012,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4026,7 +4029,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4042,7 +4045,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4059,7 +4062,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4075,7 +4078,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4134,7 +4137,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4151,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,14 +4187,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4207,7 +4210,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4233,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4273,7 +4276,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4299,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,14 +4319,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4332,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,14 +4352,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,7 +4368,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4431,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,14 +4451,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4464,31 +4467,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4504,21 +4507,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4537,21 +4540,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4563,31 +4566,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,7 +4599,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4609,18 +4612,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>100</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,31 +4632,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4662,28 +4665,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4702,21 +4705,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4728,28 +4731,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>90</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4761,28 +4764,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4794,28 +4797,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4834,24 +4837,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,31 +4863,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4900,24 +4903,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4926,66 +4929,99 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5389.9700000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>303</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>304</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>84</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>305</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5469.9700000000003</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
         <v>306</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
         <v>307</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>308</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5509,10 +5545,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -200,6 +200,21 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BIOLEGAM60/100 TAB</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>BOWELOCARE 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -263,9 +278,6 @@
     <t>CAL-MAG D CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
   </si>
   <si>
@@ -551,6 +563,18 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -641,9 +665,6 @@
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>246.00</t>
   </si>
   <si>
@@ -659,9 +680,6 @@
     <t>20.5800</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>RESPOVAN 120 ML SYRUP</t>
   </si>
   <si>
@@ -713,9 +731,6 @@
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
-    <t>106.00</t>
-  </si>
-  <si>
     <t>53.0000</t>
   </si>
   <si>
@@ -929,7 +944,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:11 PM</t>
+    <t>Tuesday, 9 September, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,24 +2014,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2025,14 +2040,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2042,14 +2057,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2141,14 +2156,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2157,14 +2172,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2174,14 +2189,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2190,31 +2205,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2223,31 +2238,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2256,31 +2271,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2289,28 +2304,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>27</v>
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2362,7 +2377,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,14 +2420,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2445,7 +2460,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2476,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2471,11 +2486,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2487,14 +2502,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,11 +2519,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2527,7 +2542,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,11 +2552,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2652,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2684,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2739,10 +2754,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,11 +2783,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>27</v>
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2857,7 +2872,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,14 +2915,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2948,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2966,11 +2981,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2982,28 +2997,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3015,31 +3030,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3063,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,11 +3080,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -3081,31 +3096,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,31 +3129,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3147,14 +3162,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,14 +3179,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3180,7 +3195,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3197,11 +3212,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,11 +3245,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3278,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,11 +3311,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,11 +3344,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>27</v>
@@ -3345,31 +3360,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3378,31 +3393,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,14 +3443,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3461,11 +3476,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,11 +3542,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,11 +3608,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,11 +3641,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,7 +3723,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3721,15 +3736,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,11 +3773,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3774,31 +3789,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,14 +3822,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,14 +3839,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3847,7 +3862,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3864,7 +3879,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3890,14 +3905,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>50</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,7 +3921,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3923,11 +3938,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3971,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4037,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4078,7 +4093,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4092,10 +4107,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4136,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>27</v>
@@ -4137,7 +4152,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4154,11 +4169,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>27</v>
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,11 +4202,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4203,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,7 +4235,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4243,7 +4258,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,11 +4268,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4269,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,11 +4301,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4302,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4334,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,11 +4367,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4433,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4449,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,11 +4466,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4467,14 +4482,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4499,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,28 +4515,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4540,24 +4555,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>24</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,28 +4581,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4599,31 +4614,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>278</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,20 +4647,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4653,10 +4668,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,31 +4680,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,7 +4713,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4711,18 +4726,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,20 +4746,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4771,21 +4786,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4797,28 +4812,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4830,28 +4845,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4863,31 +4878,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,31 +4911,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4929,31 +4944,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4962,66 +4977,132 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5469.9700000000003</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>305</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>65</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
         <v>306</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>307</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c t="s" r="Q111" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>308</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>309</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>65</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>310</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5509.9700000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>311</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>312</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>313</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5550,10 +5631,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:13 PM</t>
+    <t>Tuesday, 9 September, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>32.00</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -422,7 +431,7 @@
     <t>42.00</t>
   </si>
   <si>
-    <t>42.0000</t>
+    <t>84.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -437,6 +446,15 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>ERASTAPEX 40MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -548,6 +566,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>INLETAIR 10MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>ITOMASH 50MG 30 TAB.</t>
   </si>
   <si>
@@ -623,6 +650,15 @@
     <t>27.0600</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
@@ -653,6 +689,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -683,12 +728,6 @@
     <t>RESPOVAN 120 ML SYRUP</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -701,9 +740,24 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>SEDOKAST 10MG 10 F.C. TAB</t>
   </si>
   <si>
+    <t>SELECTIVAL 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>SOFENACIN 10MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -725,9 +779,6 @@
     <t>84.00</t>
   </si>
   <si>
-    <t>84.0000</t>
-  </si>
-  <si>
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
@@ -785,9 +836,6 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>93.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -932,19 +980,13 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>24:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>Tuesday, 9 September, 2025 10:19 PM</t>
+    <t>Tuesday, 9 September, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2344,7 +2386,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2354,14 +2396,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2370,14 +2412,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,14 +2429,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2403,14 +2445,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2427,7 +2469,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2443,7 +2485,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2460,7 +2502,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2476,7 +2518,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,14 +2528,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2502,14 +2544,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2519,11 +2561,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2535,14 +2577,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,11 +2594,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2568,14 +2610,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2608,7 +2650,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2625,7 +2667,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2641,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2658,7 +2700,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2674,7 +2716,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2688,10 +2730,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,14 +2742,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2717,14 +2759,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2733,14 +2775,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2750,14 +2792,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2773,7 +2815,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2787,10 +2829,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2799,7 +2841,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2816,7 +2858,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2839,7 +2881,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2856,7 +2898,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2872,7 +2914,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,14 +2924,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2898,14 +2940,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,14 +2957,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2931,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,11 +2990,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>50</v>
@@ -2964,14 +3006,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2981,11 +3023,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2997,14 +3039,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3014,14 +3056,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3030,7 +3072,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3043,15 +3085,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3063,14 +3105,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3080,14 +3122,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3096,31 +3138,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3129,31 +3171,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3169,7 +3211,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3179,14 +3221,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3208,7 +3250,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3235,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,14 +3287,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3268,7 +3310,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3301,7 +3343,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3318,7 +3360,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3334,7 +3376,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3351,7 +3393,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3367,7 +3409,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3400,24 +3442,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3426,14 +3468,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3450,7 +3492,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3499,24 +3541,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3532,7 +3574,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,11 +3584,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3558,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3575,14 +3617,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3591,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3608,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3624,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,11 +3683,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3657,14 +3699,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3674,14 +3716,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,14 +3732,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,11 +3749,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3723,14 +3765,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3782,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,14 +3798,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,14 +3815,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3789,28 +3831,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3822,14 +3864,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,14 +3897,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3895,7 +3937,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3947,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3928,13 +3970,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3961,7 +4003,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +4013,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,11 +4046,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4020,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,11 +4079,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>27</v>
@@ -4053,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,11 +4145,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4126,7 +4168,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,7 +4227,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4202,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,7 +4293,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4268,11 +4310,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4284,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4317,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4376,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,11 +4409,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4383,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4442,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4416,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,11 +4475,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4449,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,14 +4541,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4565,11 +4607,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4581,31 +4623,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,31 +4656,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,31 +4689,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,7 +4722,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4693,18 +4735,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,7 +4755,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4726,18 +4768,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4746,28 +4788,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4779,31 +4821,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4829,11 +4871,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4845,14 +4887,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,11 +4904,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4878,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,11 +4937,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4911,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4928,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4961,14 +5003,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,14 +5019,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4994,14 +5036,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5010,7 +5052,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5027,14 +5069,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5043,14 +5085,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5060,49 +5102,280 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5509.9700000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>311</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>100</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>65</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
         <v>312</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>313</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>314</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>12</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>65</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>315</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>317</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>46</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>65</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>296</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>318</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>319</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>65</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>301</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>320</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>41</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>65</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>315</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>321</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>12</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>65</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>322</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>323</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>324</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>65</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>95</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6037.3299999999999</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>325</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>326</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>327</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5641,10 +5914,45 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:20 PM</t>
+    <t>Tuesday, 9 September, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -635,6 +635,12 @@
     <t>81.8400</t>
   </si>
   <si>
+    <t>LOTERANOL 0.5% EYE DROPS</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>LUTOFOLONE 2 AMP.</t>
   </si>
   <si>
@@ -818,6 +824,9 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TRIMED FLU 20 F.C. TABS.</t>
+  </si>
+  <si>
     <t>UNITRIN 25MG 30 CAPS.</t>
   </si>
   <si>
@@ -986,7 +995,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:22 PM</t>
+    <t>Tuesday, 9 September, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3772,24 +3781,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3805,7 +3814,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3881,14 +3890,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3904,7 +3913,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3937,7 +3946,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3951,7 +3960,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3963,28 +3972,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3996,28 +4005,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,11 +4055,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>194</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4234,7 +4243,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4260,7 +4269,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4277,11 +4286,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,7 +4335,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4366,7 +4375,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4399,7 +4408,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4432,7 +4441,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>27</v>
@@ -4465,7 +4474,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,11 +4517,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4524,7 +4533,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4541,11 +4550,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,7 +4583,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4597,7 +4606,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,11 +4616,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,11 +4649,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4663,7 +4672,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>51</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,11 +4715,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,14 +4781,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,11 +4814,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,14 +4847,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4854,28 +4863,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4887,31 +4896,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>24</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4937,11 +4946,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>299</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,14 +5045,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5052,7 +5061,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5069,14 +5078,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>100</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5118,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5144,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5151,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5177,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5184,14 +5193,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,11 +5210,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,14 +5243,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5257,7 +5266,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,14 +5276,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5290,7 +5299,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,14 +5309,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5323,7 +5332,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,49 +5342,115 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>324</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>65</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>325</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>96</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6037.3299999999999</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>325</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c t="s" r="Q120" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>326</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>327</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>65</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>95</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6117.3299999999999</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>328</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>329</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>330</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5949,10 +6024,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -332,10 +332,13 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>105.00</t>
   </si>
   <si>
-    <t>35.7000</t>
+    <t>70.3500</t>
   </si>
   <si>
     <t>CONGESTAL 20 TABS</t>
@@ -752,6 +755,12 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>SEDOKAST 10MG 10 F.C. TAB</t>
   </si>
   <si>
@@ -839,12 +848,12 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -995,7 +1004,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:23 PM</t>
+    <t>Tuesday, 9 September, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2527,7 +2536,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2570,11 +2579,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2586,7 +2595,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2636,11 +2645,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2652,7 +2661,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2685,7 +2694,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2702,11 +2711,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>27</v>
@@ -2718,7 +2727,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2735,11 +2744,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2768,7 +2777,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2784,7 +2793,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2801,11 +2810,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2838,7 +2847,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>50</v>
@@ -2850,7 +2859,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2871,7 +2880,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2883,7 +2892,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>27</v>
@@ -2916,7 +2925,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>79</v>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2982,7 +2991,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>50</v>
@@ -3015,7 +3024,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3036,7 +3045,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3069,7 +3078,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>50</v>
@@ -3081,7 +3090,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3114,7 +3123,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3135,7 +3144,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3147,7 +3156,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3164,11 +3173,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3180,7 +3189,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3197,7 +3206,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3213,7 +3222,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -3246,7 +3255,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3263,11 +3272,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3312,7 +3321,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3329,11 +3338,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3378,7 +3387,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3411,7 +3420,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3444,7 +3453,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>27</v>
@@ -3477,7 +3486,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3494,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3510,7 +3519,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3543,7 +3552,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3564,7 +3573,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>79</v>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3609,7 +3618,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3626,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3642,7 +3651,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3659,7 +3668,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,11 +3701,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3708,7 +3717,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3741,7 +3750,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3774,7 +3783,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3791,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3807,7 +3816,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3828,7 +3837,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>27</v>
@@ -3873,7 +3882,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3906,7 +3915,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3927,7 +3936,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3939,7 +3948,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3956,7 +3965,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3972,7 +3981,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4005,7 +4014,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4038,7 +4047,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4055,11 +4064,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4071,7 +4080,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4104,7 +4113,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>27</v>
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,7 +4179,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4220,11 +4229,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>50</v>
@@ -4236,7 +4245,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4257,7 +4266,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,7 +4311,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4342,7 +4351,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4359,7 +4368,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,11 +4427,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4606,7 +4615,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4632,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>123</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,11 +4691,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4715,11 +4724,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4771,7 +4780,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4821,7 +4830,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4870,7 +4879,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4903,7 +4912,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4920,7 +4929,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4936,24 +4945,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,11 +4988,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,11 +5021,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5035,7 +5044,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,10 +5091,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>305</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>110</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5101,7 +5110,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5118,7 +5127,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5134,7 +5143,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>172</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5160,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>172</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5193,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5233,7 +5242,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5266,7 +5275,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,11 +5285,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5292,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,14 +5351,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5358,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,14 +5384,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5391,14 +5400,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,49 +5417,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>95</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6117.3299999999999</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>328</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>329</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
         <v>330</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>65</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>95</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6213.6700000000001</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>331</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>332</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>333</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6034,10 +6076,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:25 PM</t>
+    <t>Tuesday, 9 September, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -227,9 +239,6 @@
     <t>BRONCHONEER 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>147.00</t>
   </si>
   <si>
@@ -638,6 +647,12 @@
     <t>81.8400</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>LOTERANOL 0.5% EYE DROPS</t>
   </si>
   <si>
@@ -782,6 +797,12 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
@@ -842,9 +863,6 @@
     <t>URIPAN 5MG 30 TAB.</t>
   </si>
   <si>
-    <t>17.8200</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -1004,7 +1022,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:51 PM</t>
+    <t>Tuesday, 9 September, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2059,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2051,11 +2069,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>27</v>
@@ -2067,28 +2085,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>27</v>
@@ -2100,31 +2118,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2157,7 +2175,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2173,7 +2191,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2190,7 +2208,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2206,7 +2224,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2216,14 +2234,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2256,7 +2274,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2272,7 +2290,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2289,7 +2307,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2305,24 +2323,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2331,31 +2349,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2371,13 +2389,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2385,10 +2403,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2397,31 +2415,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2437,7 +2455,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2447,14 +2465,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2520,7 +2538,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2536,7 +2554,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2546,14 +2564,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2579,14 +2597,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2612,11 +2630,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2645,11 +2663,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2701,7 +2719,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2718,7 +2736,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2734,7 +2752,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2751,7 +2769,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2767,7 +2785,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2781,10 +2799,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2866,7 +2884,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2880,10 +2898,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,7 +2927,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2932,7 +2950,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2949,7 +2967,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2965,7 +2983,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>148</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3031,7 +3049,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3097,7 +3115,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3156,24 +3174,24 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3196,13 +3214,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3210,10 +3228,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,11 +3257,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>27</v>
@@ -3262,13 +3280,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3279,7 +3297,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3295,24 +3313,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3328,7 +3346,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,14 +3356,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3394,7 +3412,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3427,7 +3445,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3444,7 +3462,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3460,7 +3478,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3493,7 +3511,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3510,7 +3528,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3526,7 +3544,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3543,7 +3561,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3559,24 +3577,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,31 +3603,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3658,7 +3676,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3672,10 +3690,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3719,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,14 +3768,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3785,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3790,24 +3808,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3849,31 +3867,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3889,7 +3907,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3917,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,7 +3950,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3955,7 +3973,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3969,7 +3987,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3981,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4027,7 +4045,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4035,7 +4053,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4047,14 +4065,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,11 +4082,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4080,28 +4098,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4113,14 +4131,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4148,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4164,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4181,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>50</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4252,7 +4270,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,11 +4280,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4311,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4344,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,7 +4445,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4450,7 +4468,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4464,10 +4482,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4494,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,11 +4511,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4509,7 +4527,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4526,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,11 +4610,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4608,7 +4626,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4625,11 +4643,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4648,7 +4666,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,11 +4676,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4674,14 +4692,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,11 +4709,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4707,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,11 +4742,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4740,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,11 +4775,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4773,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>111</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4841,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>27</v>
@@ -4839,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4874,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,14 +4923,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,28 +4989,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5004,7 +5022,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5017,15 +5035,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5044,24 +5062,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>61</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5077,24 +5095,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,31 +5121,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,28 +5154,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>100</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5169,7 +5187,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5182,18 +5200,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,31 +5220,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,28 +5253,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5268,7 +5286,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5281,15 +5299,15 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>175</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5301,28 +5319,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5334,31 +5352,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>103</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5374,24 +5392,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5400,31 +5418,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5433,66 +5451,165 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6213.6700000000001</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>331</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>332</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>41</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>69</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>327</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>333</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>12</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>69</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>334</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>335</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>336</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>69</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>98</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6399.7600000000002</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>337</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>338</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>339</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6081,10 +6198,25 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -1022,7 +1022,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:52 PM</t>
+    <t>Tuesday, 9 September, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -524,6 +524,15 @@
     <t>62.7500</t>
   </si>
   <si>
+    <t>FUCICORT CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -782,12 +791,6 @@
     <t>SELECTIVAL 20 CAPSULES</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t>SOFENACIN 10MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -911,6 +914,15 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -1022,7 +1034,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:53 PM</t>
+    <t>Tuesday, 9 September, 2025 10:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3346,7 +3358,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3379,7 +3391,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3445,7 +3457,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3478,7 +3490,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3495,7 +3507,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3544,7 +3556,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3561,7 +3573,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3577,7 +3589,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3594,7 +3606,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3610,24 +3622,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3636,31 +3648,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3709,7 +3721,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3723,10 +3735,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3735,14 +3747,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,14 +3764,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3768,14 +3780,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3785,14 +3797,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3813,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3841,7 +3853,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3851,14 +3863,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3867,7 +3879,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3880,15 +3892,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3900,31 +3912,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3933,14 +3945,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,7 +3962,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3973,7 +3985,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3990,7 +4002,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4006,7 +4018,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4028,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4044,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,14 +4061,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4065,14 +4077,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,11 +4094,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4105,13 +4117,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4138,13 +4150,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4171,7 +4183,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4204,7 +4216,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4221,7 +4233,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4237,7 +4249,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,14 +4259,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>198</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4270,7 +4282,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,14 +4292,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,14 +4341,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4362,14 +4374,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4383,10 +4395,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,14 +4424,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4428,7 +4440,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4445,11 +4457,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4468,7 +4480,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4490,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4494,7 +4506,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4511,11 +4523,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4527,7 +4539,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4544,14 +4556,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,11 +4589,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4610,14 +4622,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4643,11 +4655,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>27</v>
@@ -4659,14 +4671,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,11 +4688,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4699,7 +4711,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,11 +4721,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4725,7 +4737,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4742,11 +4754,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4758,14 +4770,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,11 +4787,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4791,14 +4803,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,11 +4820,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4831,7 +4843,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,11 +4853,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>27</v>
@@ -4864,7 +4876,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,11 +4886,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4897,7 +4909,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,14 +4919,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4923,14 +4935,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4940,14 +4952,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,14 +4968,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,14 +4985,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4989,7 +5001,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5006,11 +5018,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5022,14 +5034,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,11 +5051,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5055,14 +5067,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5084,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,28 +5100,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5121,31 +5133,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,14 +5166,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,11 +5183,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5194,7 +5206,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,14 +5216,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,14 +5232,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,14 +5249,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5253,14 +5265,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,14 +5282,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5286,7 +5298,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5303,14 +5315,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>175</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>176</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5326,7 +5338,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>103</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5336,11 +5348,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5352,14 +5364,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5369,11 +5381,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5385,14 +5397,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,11 +5414,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5418,14 +5430,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,11 +5447,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5458,7 +5470,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,14 +5480,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5484,14 +5496,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,14 +5513,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5517,14 +5529,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,14 +5546,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,14 +5562,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5567,49 +5579,115 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>337</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>12</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>69</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>338</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>99</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6399.7600000000002</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>337</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>338</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c t="s" r="Q126" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>339</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>340</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>69</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>98</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>6585.7600000000002</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>341</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>342</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>343</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6213,10 +6291,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -1034,7 +1034,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:54 PM</t>
+    <t>Tuesday, 9 September, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -350,6 +350,12 @@
     <t>70.3500</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -713,6 +719,12 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
@@ -752,10 +764,10 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>10:5</t>
-  </si>
-  <si>
-    <t>20.5800</t>
+    <t>9:5</t>
+  </si>
+  <si>
+    <t>62.5800</t>
   </si>
   <si>
     <t>RESPOVAN 120 ML SYRUP</t>
@@ -947,9 +959,6 @@
     <t>56:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1034,7 +1043,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 10:58 PM</t>
+    <t>Tuesday, 9 September, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2632,7 +2641,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2708,11 +2717,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2741,11 +2750,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2946,7 +2955,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2972,11 +2981,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>27</v>
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3127,7 +3136,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3203,11 +3212,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3226,21 +3235,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3252,31 +3261,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3292,7 +3301,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3306,7 +3315,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>27</v>
@@ -3318,31 +3327,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3351,28 +3360,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3450,7 +3459,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3467,11 +3476,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3549,7 +3558,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3648,31 +3657,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3688,24 +3697,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3787,7 +3796,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3820,7 +3829,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3925,11 +3934,11 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3952,24 +3961,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3985,7 +3994,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3995,11 +4004,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4061,14 +4070,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4084,7 +4093,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4117,7 +4126,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4131,7 +4140,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4143,28 +4152,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4193,11 +4202,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4209,28 +4218,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4259,14 +4268,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4325,14 +4334,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4358,14 +4367,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>145</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4391,11 +4400,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4424,14 +4433,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4447,7 +4456,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4457,11 +4466,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4473,14 +4482,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4490,14 +4499,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4546,7 +4555,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4572,7 +4581,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4612,7 +4621,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>166</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4645,7 +4654,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4655,14 +4664,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4678,7 +4687,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4692,10 +4701,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4711,7 +4720,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4721,11 +4730,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>27</v>
@@ -4737,7 +4746,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4754,11 +4763,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4777,7 +4786,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4787,11 +4796,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4820,11 +4829,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4853,11 +4862,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>27</v>
@@ -4869,14 +4878,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4886,11 +4895,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4902,14 +4911,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,11 +4928,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>27</v>
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4952,14 +4961,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4975,7 +4984,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,11 +4994,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>27</v>
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5018,14 +5027,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5034,14 +5043,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5051,14 +5060,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5084,11 +5093,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5100,7 +5109,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5117,11 +5126,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5133,14 +5142,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5166,28 +5175,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5199,31 +5208,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5249,11 +5258,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5272,7 +5281,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5282,14 +5291,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5298,14 +5307,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5315,14 +5324,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5348,14 +5357,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5364,7 +5373,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5397,14 +5406,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5414,11 +5423,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5430,14 +5439,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5447,11 +5456,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>180</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5463,14 +5472,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5480,11 +5489,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5496,14 +5505,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5513,11 +5522,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5529,14 +5538,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5546,14 +5555,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5569,7 +5578,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5579,14 +5588,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>326</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5602,7 +5611,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5612,14 +5621,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>99</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5635,7 +5644,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5645,49 +5654,115 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>340</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>69</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>341</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>99</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6585.7600000000002</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>341</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c t="s" r="Q128" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>342</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
         <v>343</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>69</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>98</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6683.3999999999996</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>344</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>345</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>346</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6301,10 +6376,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -455,321 +455,330 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>95.0400</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>110.8800</t>
+  </si>
+  <si>
+    <t>EMPACOZA 10 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 40MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>FIRSTVOC HIAR SHAMPOO 200ML</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FOSAMAX TAB</t>
+  </si>
+  <si>
+    <t>62.75</t>
+  </si>
+  <si>
+    <t>62.7500</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>-17.8200</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>GYNO-DAKTARIN 2% VAGINAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INLETAIR 10MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LENEX FOOT CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>81.8400</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>LOTERANOL 0.5% EYE DROPS</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>9:5</t>
+  </si>
+  <si>
+    <t>62.5800</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>ERASTAPEX 40MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEBURIC 40 MG 10 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>FIRSTVOC HIAR SHAMPOO 200ML</t>
-  </si>
-  <si>
-    <t>185.00</t>
-  </si>
-  <si>
-    <t>185.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FOSAMAX TAB</t>
-  </si>
-  <si>
-    <t>62.75</t>
-  </si>
-  <si>
-    <t>62.7500</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>-17.8200</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOCONAZOL 0.8% VAGINAL CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>GYNO-DAKTARIN 2% VAGINAL CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INLETAIR 10MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>ITOMASH 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>JOYPOX 60MG 3 TAB</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>16.9600</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LENEX FOOT CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>81.8400</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>LOTERANOL 0.5% EYE DROPS</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>PHENADONE SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>9:5</t>
-  </si>
-  <si>
-    <t>62.5800</t>
-  </si>
-  <si>
     <t>RESPOVAN 120 ML SYRUP</t>
   </si>
   <si>
@@ -1043,7 +1052,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 11:00 PM</t>
+    <t>Tuesday, 9 September, 2025 11:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3087,7 +3096,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3268,21 +3277,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3294,31 +3303,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3334,7 +3343,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3348,7 +3357,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3360,31 +3369,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3393,28 +3402,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3492,7 +3501,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3509,11 +3518,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3690,31 +3699,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3730,24 +3739,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>27</v>
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3829,7 +3838,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3862,7 +3871,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3967,11 +3976,11 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3994,24 +4003,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4027,7 +4036,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4037,11 +4046,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4126,7 +4135,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4159,7 +4168,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4173,7 +4182,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4185,7 +4194,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4202,11 +4211,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4225,13 +4234,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4239,7 +4248,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4251,28 +4260,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4284,14 +4293,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4301,11 +4310,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>68</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4367,14 +4376,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>150</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4400,14 +4409,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4433,14 +4442,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4466,14 +4475,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4482,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4503,10 +4512,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4532,14 +4541,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4548,7 +4557,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4565,11 +4574,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4581,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4598,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4631,11 +4640,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4647,7 +4656,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4664,14 +4673,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4680,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4697,11 +4706,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>128</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4713,14 +4722,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4730,14 +4739,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4746,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4763,11 +4772,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4779,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4796,11 +4805,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4812,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4829,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4885,7 +4894,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4895,11 +4904,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4911,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4928,11 +4937,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>27</v>
@@ -4944,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4961,11 +4970,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4977,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4994,11 +5003,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>27</v>
@@ -5010,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5027,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5050,7 +5059,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5060,14 +5069,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5076,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5100,7 +5109,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5149,7 +5158,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5182,7 +5191,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5215,7 +5224,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5232,7 +5241,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5248,24 +5257,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>61</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5274,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5291,11 +5300,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5307,14 +5316,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5324,11 +5333,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5340,14 +5349,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5357,14 +5366,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5394,10 +5403,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q119" s="12">
         <v>321</v>
-      </c>
-      <c t="s" r="Q119" s="12">
-        <v>116</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5413,7 +5422,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5430,7 +5439,7 @@
         <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5446,7 +5455,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5456,11 +5465,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5472,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5489,11 +5498,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>329</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5505,14 +5514,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5545,7 +5554,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5578,7 +5587,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5588,11 +5597,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5604,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5621,14 +5630,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5637,14 +5646,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5654,14 +5663,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5670,14 +5679,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5687,14 +5696,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5703,14 +5712,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5720,49 +5729,82 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6683.3999999999996</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>344</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>345</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
         <v>346</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>69</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>98</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>6778.4399999999996</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>347</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>348</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>349</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6386,10 +6428,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -461,15 +461,6 @@
     <t>110.8800</t>
   </si>
   <si>
-    <t>EMPACOZA 10 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
     <t>ERASTAPEX 40MG 30 TABLETS</t>
   </si>
   <si>
@@ -770,13 +761,13 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>9:5</t>
-  </si>
-  <si>
-    <t>62.5800</t>
-  </si>
-  <si>
-    <t>1:3</t>
+    <t>10:4</t>
+  </si>
+  <si>
+    <t>27.3000</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>RESPOVAN 120 ML SYRUP</t>
@@ -1052,7 +1043,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 11:01 PM</t>
+    <t>Tuesday, 9 September, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3112,7 +3103,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3129,7 +3120,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3145,7 +3136,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3155,14 +3146,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3171,14 +3162,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3188,14 +3179,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3211,7 +3202,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3221,14 +3212,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3237,14 +3228,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3254,11 +3245,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3270,24 +3261,24 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3310,13 +3301,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3324,10 +3315,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3336,14 +3327,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3353,11 +3344,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>27</v>
@@ -3376,13 +3367,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3393,7 +3384,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3409,13 +3400,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3442,7 +3433,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3452,14 +3443,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3475,7 +3466,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3485,14 +3476,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3541,7 +3532,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3574,7 +3565,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3591,7 +3582,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3640,7 +3631,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3657,7 +3648,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3673,7 +3664,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3690,7 +3681,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3706,24 +3697,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3732,31 +3723,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3765,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3805,7 +3796,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3819,10 +3810,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3831,14 +3822,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3848,14 +3839,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3864,14 +3855,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,14 +3872,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3888,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,14 +3905,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3937,7 +3928,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,14 +3938,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3963,7 +3954,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3976,15 +3967,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3996,31 +3987,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4029,14 +4020,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,7 +4037,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4069,7 +4060,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4086,7 +4077,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4102,7 +4093,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,14 +4103,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4128,14 +4119,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,14 +4136,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4161,14 +4152,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,11 +4169,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4215,7 +4206,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4227,28 +4218,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4267,13 +4258,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4300,7 +4291,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4333,7 +4324,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4350,7 +4341,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4366,7 +4357,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4376,14 +4367,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4392,14 +4383,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,14 +4400,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4425,14 +4416,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,14 +4433,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4458,14 +4449,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,14 +4466,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4491,14 +4482,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4512,10 +4503,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,14 +4515,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,14 +4532,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,7 +4548,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4574,11 +4565,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4590,14 +4581,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,14 +4598,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4640,11 +4631,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>27</v>
@@ -4656,7 +4647,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4673,14 +4664,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4689,14 +4680,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,11 +4697,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4722,14 +4713,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4739,14 +4730,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4755,14 +4746,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,11 +4763,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4788,14 +4779,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,11 +4796,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4821,14 +4812,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,11 +4829,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>27</v>
@@ -4894,7 +4885,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,11 +4895,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4920,14 +4911,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,11 +4928,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>27</v>
@@ -4953,14 +4944,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,11 +4961,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -4986,14 +4977,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,11 +4994,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>27</v>
@@ -5019,14 +5010,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5027,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5059,7 +5050,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,14 +5060,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,14 +5076,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5109,7 +5100,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5158,7 +5149,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5191,7 +5182,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5224,7 +5215,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5241,7 +5232,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5257,24 +5248,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,14 +5274,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,11 +5291,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5316,14 +5307,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,11 +5324,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5349,14 +5340,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,14 +5357,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5403,10 +5394,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>321</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5422,7 +5413,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5439,7 +5430,7 @@
         <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5455,7 +5446,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,11 +5456,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>179</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5481,14 +5472,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5489,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>182</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5514,14 +5505,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5554,7 +5545,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5587,7 +5578,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,11 +5588,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5613,14 +5604,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>46</v>
+        <v>338</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,14 +5621,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>224</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5646,14 +5637,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,14 +5654,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5679,14 +5670,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,14 +5687,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>332</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5712,14 +5703,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5729,82 +5720,49 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="A130" s="7">
-        <v>124</v>
-      </c>
-      <c r="B130" s="7"/>
-      <c t="s" r="C130" s="8">
+      <c r="P130" s="13">
+        <v>6663.96</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>344</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
         <v>345</v>
       </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c t="s" r="H130" s="9">
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
         <v>346</v>
       </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c t="s" r="L130" s="10">
-        <v>69</v>
-      </c>
-      <c r="M130" s="10"/>
-      <c t="s" r="N130" s="8">
-        <v>98</v>
-      </c>
-      <c r="O130" s="8"/>
-      <c t="s" r="P130" s="11">
-        <v>99</v>
-      </c>
-      <c t="s" r="Q130" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>6778.4399999999996</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>347</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>348</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>349</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6428,15 +6386,10 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="H130:K130"/>
-    <mergeCell ref="L130:M130"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-09_00-00.xlsx
+++ b/DaySale_2025-09-09_00-00.xlsx
@@ -1043,7 +1043,7 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>Tuesday, 9 September, 2025 11:12 PM</t>
+    <t>Tuesday, 9 September, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
